--- a/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
+++ b/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2 (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4 (2)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="323">
   <si>
     <t>subject</t>
   </si>
@@ -982,15 +984,21 @@
   <si>
     <t>Talk about how we dealt with learning effect</t>
   </si>
+  <si>
+    <t>Questions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there any correlation between score/mode and gender, vision, </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,7 +1170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1197,7 +1204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1373,14 +1379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="A1:Y157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1409,7 +1415,7 @@
     <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>15</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>17</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -4797,7 +4803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45">
         <v>19</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46">
         <v>20</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47">
         <v>21</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48">
         <v>22</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49">
         <v>23</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50">
         <v>24</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51">
         <v>25</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52">
         <v>26</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53">
         <v>27</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5567,7 +5573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5644,7 +5650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -5798,7 +5804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -5875,7 +5881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -5952,7 +5958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -6029,7 +6035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>13</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67">
         <v>15</v>
       </c>
@@ -6568,7 +6574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69">
         <v>17</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70">
         <v>18</v>
       </c>
@@ -6799,7 +6805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71">
         <v>19</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72">
         <v>20</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73">
         <v>21</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74">
         <v>22</v>
       </c>
@@ -7107,7 +7113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75">
         <v>23</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76">
         <v>24</v>
       </c>
@@ -7261,7 +7267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77">
         <v>25</v>
       </c>
@@ -7338,7 +7344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78">
         <v>26</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79">
         <v>27</v>
       </c>
@@ -7492,7 +7498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7569,7 +7575,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -7646,7 +7652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -7723,7 +7729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -7877,7 +7883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85">
         <v>7</v>
       </c>
@@ -7951,7 +7957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86">
         <v>8</v>
       </c>
@@ -8028,7 +8034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87">
         <v>9</v>
       </c>
@@ -8105,7 +8111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88">
         <v>10</v>
       </c>
@@ -8182,7 +8188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -8259,7 +8265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90">
         <v>12</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91">
         <v>13</v>
       </c>
@@ -8413,7 +8419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93">
         <v>15</v>
       </c>
@@ -8567,7 +8573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94">
         <v>16</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95">
         <v>17</v>
       </c>
@@ -8721,7 +8727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96">
         <v>18</v>
       </c>
@@ -8798,7 +8804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -8875,7 +8881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -8952,7 +8958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -9029,7 +9035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25">
       <c r="A100">
         <v>22</v>
       </c>
@@ -9106,7 +9112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25">
       <c r="A101">
         <v>23</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25">
       <c r="A102">
         <v>24</v>
       </c>
@@ -9260,7 +9266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25">
       <c r="A103">
         <v>25</v>
       </c>
@@ -9337,7 +9343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25">
       <c r="A104">
         <v>26</v>
       </c>
@@ -9414,7 +9420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25">
       <c r="A105">
         <v>27</v>
       </c>
@@ -9491,7 +9497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -9645,7 +9651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -9722,7 +9728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -9876,7 +9882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="A111">
         <v>7</v>
       </c>
@@ -9953,7 +9959,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25">
       <c r="A112">
         <v>8</v>
       </c>
@@ -10030,7 +10036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25">
       <c r="A113">
         <v>9</v>
       </c>
@@ -10107,7 +10113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25">
       <c r="A114">
         <v>10</v>
       </c>
@@ -10184,7 +10190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25">
       <c r="A115">
         <v>11</v>
       </c>
@@ -10261,7 +10267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25">
       <c r="A116">
         <v>12</v>
       </c>
@@ -10338,7 +10344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25">
       <c r="A117">
         <v>13</v>
       </c>
@@ -10415,7 +10421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25">
       <c r="A118">
         <v>14</v>
       </c>
@@ -10492,7 +10498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25">
       <c r="A119">
         <v>15</v>
       </c>
@@ -10569,7 +10575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25">
       <c r="A120">
         <v>16</v>
       </c>
@@ -10646,7 +10652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25">
       <c r="A121">
         <v>17</v>
       </c>
@@ -10723,7 +10729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25">
       <c r="A122">
         <v>18</v>
       </c>
@@ -10800,7 +10806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25">
       <c r="A123">
         <v>19</v>
       </c>
@@ -10877,7 +10883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25">
       <c r="A124">
         <v>20</v>
       </c>
@@ -10954,7 +10960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25">
       <c r="A126">
         <v>22</v>
       </c>
@@ -11108,7 +11114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25">
       <c r="A127">
         <v>23</v>
       </c>
@@ -11185,7 +11191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25">
       <c r="A128">
         <v>24</v>
       </c>
@@ -11262,7 +11268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25">
       <c r="A129">
         <v>25</v>
       </c>
@@ -11339,7 +11345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25">
       <c r="A130">
         <v>26</v>
       </c>
@@ -11416,7 +11422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25">
       <c r="A131">
         <v>27</v>
       </c>
@@ -11493,7 +11499,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -11570,7 +11576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -11647,7 +11653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -11724,7 +11730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -11801,7 +11807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -11878,7 +11884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -11955,7 +11961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -12032,7 +12038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25">
       <c r="A139">
         <v>9</v>
       </c>
@@ -12109,7 +12115,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25">
       <c r="A140">
         <v>10</v>
       </c>
@@ -12186,7 +12192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25">
       <c r="A141">
         <v>11</v>
       </c>
@@ -12263,7 +12269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25">
       <c r="A142">
         <v>12</v>
       </c>
@@ -12340,7 +12346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25">
       <c r="A143">
         <v>13</v>
       </c>
@@ -12417,7 +12423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -12494,7 +12500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25">
       <c r="A145">
         <v>15</v>
       </c>
@@ -12571,7 +12577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25">
       <c r="A146">
         <v>16</v>
       </c>
@@ -12648,7 +12654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25">
       <c r="A147">
         <v>17</v>
       </c>
@@ -12725,7 +12731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25">
       <c r="A148">
         <v>18</v>
       </c>
@@ -12802,7 +12808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25">
       <c r="A149">
         <v>19</v>
       </c>
@@ -12879,7 +12885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25">
       <c r="A150">
         <v>20</v>
       </c>
@@ -12956,7 +12962,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25">
       <c r="A151">
         <v>21</v>
       </c>
@@ -13033,7 +13039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25">
       <c r="A152">
         <v>22</v>
       </c>
@@ -13110,7 +13116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25">
       <c r="A153">
         <v>23</v>
       </c>
@@ -13187,7 +13193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -13264,7 +13270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25">
       <c r="A155">
         <v>25</v>
       </c>
@@ -13341,7 +13347,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25">
       <c r="A156">
         <v>26</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25">
       <c r="A157">
         <v>27</v>
       </c>
@@ -13505,14 +13511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -13528,7 +13534,7 @@
     <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13578,7 +13584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13628,7 +13634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13678,7 +13684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13728,7 +13734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13778,7 +13784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13828,7 +13834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13878,7 +13884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13928,7 +13934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>9</v>
       </c>
@@ -13978,7 +13984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>10</v>
       </c>
@@ -14028,7 +14034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>11</v>
       </c>
@@ -14078,7 +14084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>12</v>
       </c>
@@ -14128,7 +14134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>13</v>
       </c>
@@ -14178,7 +14184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>14</v>
       </c>
@@ -14228,7 +14234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>15</v>
       </c>
@@ -14278,7 +14284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>16</v>
       </c>
@@ -14328,7 +14334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>17</v>
       </c>
@@ -14378,7 +14384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>18</v>
       </c>
@@ -14428,7 +14434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>19</v>
       </c>
@@ -14478,7 +14484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>20</v>
       </c>
@@ -14528,7 +14534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>21</v>
       </c>
@@ -14578,7 +14584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>22</v>
       </c>
@@ -14628,7 +14634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>23</v>
       </c>
@@ -14678,7 +14684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>24</v>
       </c>
@@ -14728,7 +14734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>25</v>
       </c>
@@ -14778,7 +14784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>26</v>
       </c>
@@ -14828,7 +14834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>27</v>
       </c>
@@ -14884,14 +14890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="189.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="249.7109375" bestFit="1" customWidth="1"/>
@@ -14905,7 +14911,7 @@
     <col min="10" max="10" width="155.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -14937,7 +14943,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -14969,7 +14975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -15001,7 +15007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -15033,7 +15039,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -15065,7 +15071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -15097,7 +15103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -15129,7 +15135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -15161,7 +15167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -15193,7 +15199,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -15225,7 +15231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -15257,7 +15263,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -15289,7 +15295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -15321,7 +15327,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -15353,7 +15359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -15385,7 +15391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -15417,7 +15423,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -15449,7 +15455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -15481,7 +15487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -15513,7 +15519,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -15545,7 +15551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -15577,7 +15583,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>246</v>
       </c>
@@ -15609,7 +15615,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>255</v>
       </c>
@@ -15641,7 +15647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>264</v>
       </c>
@@ -15673,7 +15679,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -15705,7 +15711,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -15737,7 +15743,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -15775,14 +15781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -15791,7 +15797,7 @@
     <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15814,7 +15820,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15831,7 +15837,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15848,7 +15854,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15865,7 +15871,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15882,7 +15888,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15899,7 +15905,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15916,7 +15922,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15933,7 +15939,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15950,7 +15956,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15967,7 +15973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15984,7 +15990,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>12</v>
       </c>
@@ -16001,7 +16007,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>13</v>
       </c>
@@ -16018,7 +16024,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>14</v>
       </c>
@@ -16035,7 +16041,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>15</v>
       </c>
@@ -16052,7 +16058,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>16</v>
       </c>
@@ -16069,7 +16075,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>17</v>
       </c>
@@ -16086,7 +16092,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>18</v>
       </c>
@@ -16103,7 +16109,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>19</v>
       </c>
@@ -16120,7 +16126,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>20</v>
       </c>
@@ -16137,7 +16143,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>21</v>
       </c>
@@ -16154,7 +16160,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>22</v>
       </c>
@@ -16171,7 +16177,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>23</v>
       </c>
@@ -16188,7 +16194,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>24</v>
       </c>
@@ -16205,7 +16211,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>25</v>
       </c>
@@ -16222,7 +16228,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>26</v>
       </c>
@@ -16239,7 +16245,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>27</v>
       </c>
@@ -16262,15 +16268,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -16298,7 +16304,7 @@
     <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16375,7 +16381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16452,7 +16458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16529,7 +16535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16606,7 +16612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16683,7 +16689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -16760,7 +16766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -16837,7 +16843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16914,7 +16920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -16991,7 +16997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -17068,7 +17074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -17145,7 +17151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -17222,7 +17228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -17299,7 +17305,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -17376,7 +17382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -17453,7 +17459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -17530,7 +17536,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -17607,7 +17613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -17684,7 +17690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -17761,7 +17767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -17838,7 +17844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -17915,7 +17921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -17992,7 +17998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -18069,7 +18075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -18146,7 +18152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -18223,7 +18229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -18300,7 +18306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -18377,7 +18383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>313</v>
       </c>
@@ -18474,13 +18480,13 @@
         <v>50.96153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="O29">
         <f>COUNTIF(O2:O27,"No")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -18557,7 +18563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -18634,7 +18640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -18711,7 +18717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -18788,7 +18794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -18865,7 +18871,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -18942,7 +18948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -19019,7 +19025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -19096,7 +19102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -19173,7 +19179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>11</v>
       </c>
@@ -19250,7 +19256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -19327,7 +19333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -19404,7 +19410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -19481,7 +19487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -19558,7 +19564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45">
         <v>16</v>
       </c>
@@ -19635,7 +19641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46">
         <v>17</v>
       </c>
@@ -19712,7 +19718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47">
         <v>18</v>
       </c>
@@ -19789,7 +19795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48">
         <v>19</v>
       </c>
@@ -19866,7 +19872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -19943,7 +19949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50">
         <v>21</v>
       </c>
@@ -20020,7 +20026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51">
         <v>22</v>
       </c>
@@ -20097,7 +20103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52">
         <v>23</v>
       </c>
@@ -20174,7 +20180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53">
         <v>24</v>
       </c>
@@ -20251,7 +20257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54">
         <v>25</v>
       </c>
@@ -20328,7 +20334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -20405,7 +20411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>27</v>
       </c>
@@ -20482,7 +20488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
         <v>313</v>
       </c>
@@ -20580,13 +20586,13 @@
         <v>37.692307692307693</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="O58">
         <f>COUNTIF(O31:O56,"No")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -20663,7 +20669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -20740,7 +20746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -20817,7 +20823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -20894,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -20971,7 +20977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -21048,7 +21054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -21125,7 +21131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -21202,7 +21208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -21279,7 +21285,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -21356,7 +21362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -21433,7 +21439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71">
         <v>13</v>
       </c>
@@ -21510,7 +21516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -21587,7 +21593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73">
         <v>15</v>
       </c>
@@ -21664,7 +21670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74">
         <v>16</v>
       </c>
@@ -21741,7 +21747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75">
         <v>17</v>
       </c>
@@ -21818,7 +21824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76">
         <v>18</v>
       </c>
@@ -21895,7 +21901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77">
         <v>19</v>
       </c>
@@ -21972,7 +21978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78">
         <v>20</v>
       </c>
@@ -22049,7 +22055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79">
         <v>21</v>
       </c>
@@ -22126,7 +22132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80">
         <v>22</v>
       </c>
@@ -22203,7 +22209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81">
         <v>23</v>
       </c>
@@ -22280,7 +22286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82">
         <v>24</v>
       </c>
@@ -22357,7 +22363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83">
         <v>25</v>
       </c>
@@ -22434,7 +22440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84">
         <v>26</v>
       </c>
@@ -22511,7 +22517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" s="1" customFormat="1">
       <c r="A85" s="1">
         <v>27</v>
       </c>
@@ -22588,7 +22594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -22686,13 +22692,13 @@
         <v>38.46153846153846</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="O87">
         <f>COUNTIF(O60:O85,"No")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -22769,7 +22775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -22846,7 +22852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -22923,7 +22929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -23000,7 +23006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -23077,7 +23083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -23151,7 +23157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -23228,7 +23234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96">
         <v>9</v>
       </c>
@@ -23305,7 +23311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -23382,7 +23388,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25">
       <c r="A98">
         <v>11</v>
       </c>
@@ -23459,7 +23465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25">
       <c r="A99">
         <v>12</v>
       </c>
@@ -23536,7 +23542,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25">
       <c r="A100">
         <v>13</v>
       </c>
@@ -23613,7 +23619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25">
       <c r="A101">
         <v>14</v>
       </c>
@@ -23690,7 +23696,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25">
       <c r="A102">
         <v>15</v>
       </c>
@@ -23767,7 +23773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25">
       <c r="A103">
         <v>16</v>
       </c>
@@ -23844,7 +23850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25">
       <c r="A104">
         <v>17</v>
       </c>
@@ -23921,7 +23927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25">
       <c r="A105">
         <v>18</v>
       </c>
@@ -23998,7 +24004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25">
       <c r="A106">
         <v>19</v>
       </c>
@@ -24075,7 +24081,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25">
       <c r="A107">
         <v>20</v>
       </c>
@@ -24152,7 +24158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="A108">
         <v>21</v>
       </c>
@@ -24229,7 +24235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="A109">
         <v>22</v>
       </c>
@@ -24306,7 +24312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="A110">
         <v>23</v>
       </c>
@@ -24383,7 +24389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="A111">
         <v>24</v>
       </c>
@@ -24460,7 +24466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25">
       <c r="A112">
         <v>25</v>
       </c>
@@ -24537,7 +24543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25">
       <c r="A113">
         <v>26</v>
       </c>
@@ -24614,7 +24620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" s="1" customFormat="1">
       <c r="A114" s="1">
         <v>27</v>
       </c>
@@ -24691,7 +24697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25">
       <c r="A115" s="2" t="s">
         <v>313</v>
       </c>
@@ -24789,13 +24795,13 @@
         <v>59.230769230769234</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25">
       <c r="O116">
         <f>COUNTIF(O89:O114,"No")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -24872,7 +24878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -24949,7 +24955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -25026,7 +25032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -25103,7 +25109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -25180,7 +25186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -25257,7 +25263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25">
       <c r="A124">
         <v>8</v>
       </c>
@@ -25334,7 +25340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25">
       <c r="A125">
         <v>9</v>
       </c>
@@ -25411,7 +25417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25">
       <c r="A126">
         <v>10</v>
       </c>
@@ -25488,7 +25494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25">
       <c r="A127">
         <v>11</v>
       </c>
@@ -25565,7 +25571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25">
       <c r="A128">
         <v>12</v>
       </c>
@@ -25642,7 +25648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25">
       <c r="A129">
         <v>13</v>
       </c>
@@ -25719,7 +25725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25">
       <c r="A130">
         <v>14</v>
       </c>
@@ -25796,7 +25802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25">
       <c r="A131">
         <v>15</v>
       </c>
@@ -25873,7 +25879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25">
       <c r="A132">
         <v>16</v>
       </c>
@@ -25950,7 +25956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25">
       <c r="A133">
         <v>17</v>
       </c>
@@ -26027,7 +26033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25">
       <c r="A134">
         <v>18</v>
       </c>
@@ -26104,7 +26110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25">
       <c r="A135">
         <v>19</v>
       </c>
@@ -26181,7 +26187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25">
       <c r="A136">
         <v>20</v>
       </c>
@@ -26258,7 +26264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25">
       <c r="A137">
         <v>21</v>
       </c>
@@ -26335,7 +26341,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25">
       <c r="A138">
         <v>22</v>
       </c>
@@ -26412,7 +26418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25">
       <c r="A139">
         <v>23</v>
       </c>
@@ -26489,7 +26495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25">
       <c r="A140">
         <v>24</v>
       </c>
@@ -26566,7 +26572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25">
       <c r="A141">
         <v>25</v>
       </c>
@@ -26643,7 +26649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25">
       <c r="A142">
         <v>26</v>
       </c>
@@ -26720,7 +26726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" s="1" customFormat="1">
       <c r="A143" s="1">
         <v>27</v>
       </c>
@@ -26797,7 +26803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25">
       <c r="A144" s="2" t="s">
         <v>313</v>
       </c>
@@ -26895,13 +26901,13 @@
         <v>50.57692307692308</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25">
       <c r="O145">
         <f>COUNTIF(O118:O143,"No")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -26978,7 +26984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -27055,7 +27061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -27132,7 +27138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -27209,7 +27215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -27286,7 +27292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -27363,7 +27369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -27440,7 +27446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -27517,7 +27523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -27594,7 +27600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25">
       <c r="A156">
         <v>11</v>
       </c>
@@ -27671,7 +27677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25">
       <c r="A157">
         <v>12</v>
       </c>
@@ -27748,7 +27754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25">
       <c r="A158">
         <v>13</v>
       </c>
@@ -27825,7 +27831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -27902,7 +27908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25">
       <c r="A160">
         <v>15</v>
       </c>
@@ -27979,7 +27985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25">
       <c r="A161">
         <v>16</v>
       </c>
@@ -28056,7 +28062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -28133,7 +28139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25">
       <c r="A163">
         <v>18</v>
       </c>
@@ -28210,7 +28216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25">
       <c r="A164">
         <v>19</v>
       </c>
@@ -28287,7 +28293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25">
       <c r="A165">
         <v>20</v>
       </c>
@@ -28364,7 +28370,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25">
       <c r="A166">
         <v>21</v>
       </c>
@@ -28441,7 +28447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25">
       <c r="A167">
         <v>22</v>
       </c>
@@ -28518,7 +28524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25">
       <c r="A168">
         <v>23</v>
       </c>
@@ -28595,7 +28601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -28672,7 +28678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25">
       <c r="A170">
         <v>25</v>
       </c>
@@ -28749,7 +28755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25">
       <c r="A171">
         <v>26</v>
       </c>
@@ -28826,7 +28832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" s="1" customFormat="1">
       <c r="A172" s="1">
         <v>27</v>
       </c>
@@ -28903,7 +28909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25">
       <c r="A173" s="2" t="s">
         <v>313</v>
       </c>
@@ -29001,18 +29007,18 @@
         <v>55.96153846153846</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25">
       <c r="O174">
         <f>COUNTIF(O147:O172,"No")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25">
       <c r="A178" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25">
       <c r="A179" t="str">
         <f>A28</f>
         <v>Average</v>
@@ -29114,7 +29120,7 @@
         <v>50.96153846153846</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25">
       <c r="A180" t="str">
         <f>A57</f>
         <v>Average</v>
@@ -29216,7 +29222,7 @@
         <v>37.692307692307693</v>
       </c>
     </row>
-    <row r="181" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" s="1" customFormat="1">
       <c r="A181" s="1" t="str">
         <f>A86</f>
         <v>Average</v>
@@ -29318,7 +29324,7 @@
         <v>38.46153846153846</v>
       </c>
     </row>
-    <row r="182" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" s="2" customFormat="1">
       <c r="E182" s="3">
         <f>AVERAGE(E179:E181)</f>
         <v>4362.5128205128203</v>
@@ -29395,7 +29401,7 @@
         <v>42.371794871794869</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25">
       <c r="A184" t="str">
         <f>A115</f>
         <v>Average</v>
@@ -29497,7 +29503,7 @@
         <v>59.230769230769234</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25">
       <c r="A185" t="str">
         <f>A144</f>
         <v>Average</v>
@@ -29599,7 +29605,7 @@
         <v>50.57692307692308</v>
       </c>
     </row>
-    <row r="186" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" s="1" customFormat="1">
       <c r="A186" s="1" t="str">
         <f>A173</f>
         <v>Average</v>
@@ -29701,7 +29707,7 @@
         <v>55.96153846153846</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -29782,12 +29788,12 @@
         <v>55.256410256410255</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25">
       <c r="A189" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25">
       <c r="A190" t="str">
         <f>A179</f>
         <v>Average</v>
@@ -29889,7 +29895,7 @@
         <v>50.96153846153846</v>
       </c>
     </row>
-    <row r="191" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" s="1" customFormat="1">
       <c r="A191" s="1" t="str">
         <f t="shared" ref="A191:Y191" si="40">A184</f>
         <v>Average</v>
@@ -29991,7 +29997,7 @@
         <v>59.230769230769234</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -30016,63 +30022,63 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="3">
-        <f>AVERAGE(L190:L191)</f>
+        <f t="shared" ref="L192:Y192" si="41">AVERAGE(L190:L191)</f>
         <v>1.75</v>
       </c>
       <c r="M192" s="3">
-        <f>AVERAGE(M190:M191)</f>
+        <f t="shared" si="41"/>
         <v>20.826923076923077</v>
       </c>
       <c r="N192" s="3">
-        <f>AVERAGE(N190:N191)</f>
+        <f t="shared" si="41"/>
         <v>13.009615384615385</v>
       </c>
       <c r="O192" s="3">
-        <f>AVERAGE(O190:O191)</f>
+        <f t="shared" si="41"/>
         <v>17</v>
       </c>
       <c r="P192" s="11">
-        <f>AVERAGE(P190:P191)</f>
+        <f t="shared" si="41"/>
         <v>0.47062884615384615</v>
       </c>
       <c r="Q192" s="3">
-        <f>AVERAGE(Q190:Q191)</f>
+        <f t="shared" si="41"/>
         <v>10.394615384615385</v>
       </c>
       <c r="R192" s="3">
-        <f>AVERAGE(R190:R191)</f>
+        <f t="shared" si="41"/>
         <v>15.5</v>
       </c>
       <c r="S192" s="3">
-        <f>AVERAGE(S190:S191)</f>
+        <f t="shared" si="41"/>
         <v>243.34615384615387</v>
       </c>
       <c r="T192" s="3">
-        <f>AVERAGE(T190:T191)</f>
+        <f t="shared" si="41"/>
         <v>70.961538461538453</v>
       </c>
       <c r="U192" s="3">
-        <f>AVERAGE(U190:U191)</f>
+        <f t="shared" si="41"/>
         <v>57.596153846153847</v>
       </c>
       <c r="V192" s="3">
-        <f>AVERAGE(V190:V191)</f>
+        <f t="shared" si="41"/>
         <v>65.288461538461547</v>
       </c>
       <c r="W192" s="3">
-        <f>AVERAGE(W190:W191)</f>
+        <f t="shared" si="41"/>
         <v>51.730769230769226</v>
       </c>
       <c r="X192" s="3">
-        <f>AVERAGE(X190:X191)</f>
+        <f t="shared" si="41"/>
         <v>71.82692307692308</v>
       </c>
       <c r="Y192" s="3">
-        <f>AVERAGE(Y190:Y191)</f>
+        <f t="shared" si="41"/>
         <v>55.096153846153847</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25">
       <c r="S193" s="7"/>
       <c r="T193" s="7"/>
       <c r="U193" s="7"/>
@@ -30081,211 +30087,211 @@
       <c r="X193" s="7"/>
       <c r="Y193" s="7"/>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:Y194" si="41">A180</f>
+        <f t="shared" ref="A194:Y194" si="42">A180</f>
         <v>Average</v>
       </c>
       <c r="B194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="C194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4139.6923076923076</v>
       </c>
       <c r="F194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4397.8461538461543</v>
       </c>
       <c r="G194" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.75421817078479714</v>
       </c>
       <c r="H194" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.95129702657282145</v>
       </c>
       <c r="I194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.1538461538461542</v>
       </c>
       <c r="M194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>70.807692307692307</v>
       </c>
       <c r="N194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19.992918192918196</v>
       </c>
       <c r="O194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17</v>
       </c>
       <c r="P194" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.42444999999999994</v>
       </c>
       <c r="Q194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11.339230769230769</v>
       </c>
       <c r="R194">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="S194" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>224.80769230769232</v>
       </c>
       <c r="T194" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>61.153846153846153</v>
       </c>
       <c r="U194" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>33.269230769230766</v>
       </c>
       <c r="V194" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>47.307692307692307</v>
       </c>
       <c r="W194" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>65.961538461538467</v>
       </c>
       <c r="X194" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>57.307692307692307</v>
       </c>
       <c r="Y194" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37.692307692307693</v>
       </c>
     </row>
-    <row r="195" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" s="1" customFormat="1">
       <c r="A195" s="1" t="str">
-        <f t="shared" ref="A195:Y195" si="42">A185</f>
+        <f t="shared" ref="A195:Y195" si="43">A185</f>
         <v>Average</v>
       </c>
       <c r="B195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="C195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="D195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1121.9615384615386</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1286.1538461538462</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.92595669269535352</v>
       </c>
       <c r="H195" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.87912087912087911</v>
       </c>
-      <c r="I195" s="1">
-        <f t="shared" si="42"/>
+      <c r="I195" s="14">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="J195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.9615384615384617</v>
       </c>
       <c r="M195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>91.42307692307692</v>
       </c>
       <c r="N195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>51.289447731755416</v>
       </c>
       <c r="O195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11</v>
       </c>
       <c r="P195" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.44166923076923076</v>
       </c>
       <c r="Q195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11.000384615384615</v>
       </c>
       <c r="R195" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>13</v>
       </c>
       <c r="S195" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>255.23076923076923</v>
       </c>
       <c r="T195" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>66.92307692307692</v>
       </c>
       <c r="U195" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>40.769230769230766</v>
       </c>
       <c r="V195" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>58.07692307692308</v>
       </c>
       <c r="W195" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>59.42307692307692</v>
       </c>
       <c r="X195" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>62.5</v>
       </c>
       <c r="Y195" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>50.57692307692308</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -30310,63 +30316,63 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="3">
-        <f>AVERAGE(L194:L195)</f>
+        <f t="shared" ref="L196:Y196" si="44">AVERAGE(L194:L195)</f>
         <v>3.5576923076923079</v>
       </c>
       <c r="M196" s="3">
-        <f>AVERAGE(M194:M195)</f>
+        <f t="shared" si="44"/>
         <v>81.115384615384613</v>
       </c>
       <c r="N196" s="3">
-        <f>AVERAGE(N194:N195)</f>
+        <f t="shared" si="44"/>
         <v>35.641182962336806</v>
       </c>
       <c r="O196" s="3">
-        <f>AVERAGE(O194:O195)</f>
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
       <c r="P196" s="11">
-        <f>AVERAGE(P194:P195)</f>
+        <f t="shared" si="44"/>
         <v>0.43305961538461535</v>
       </c>
       <c r="Q196" s="3">
-        <f>AVERAGE(Q194:Q195)</f>
+        <f t="shared" si="44"/>
         <v>11.169807692307693</v>
       </c>
       <c r="R196" s="3">
-        <f>AVERAGE(R194:R195)</f>
+        <f t="shared" si="44"/>
         <v>14.5</v>
       </c>
       <c r="S196" s="3">
-        <f>AVERAGE(S194:S195)</f>
+        <f t="shared" si="44"/>
         <v>240.01923076923077</v>
       </c>
-      <c r="T196" s="3">
-        <f>AVERAGE(T194:T195)</f>
+      <c r="T196" s="18">
+        <f t="shared" si="44"/>
         <v>64.038461538461533</v>
       </c>
-      <c r="U196" s="3">
-        <f>AVERAGE(U194:U195)</f>
+      <c r="U196" s="18">
+        <f t="shared" si="44"/>
         <v>37.019230769230766</v>
       </c>
-      <c r="V196" s="3">
-        <f>AVERAGE(V194:V195)</f>
+      <c r="V196" s="18">
+        <f t="shared" si="44"/>
         <v>52.692307692307693</v>
       </c>
       <c r="W196" s="3">
-        <f>AVERAGE(W194:W195)</f>
+        <f t="shared" si="44"/>
         <v>62.692307692307693</v>
       </c>
-      <c r="X196" s="3">
-        <f>AVERAGE(X194:X195)</f>
+      <c r="X196" s="18">
+        <f t="shared" si="44"/>
         <v>59.903846153846153</v>
       </c>
       <c r="Y196" s="3">
-        <f>AVERAGE(Y194:Y195)</f>
+        <f t="shared" si="44"/>
         <v>44.134615384615387</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25">
       <c r="S197" s="7"/>
       <c r="T197" s="7"/>
       <c r="U197" s="7"/>
@@ -30375,211 +30381,211 @@
       <c r="X197" s="7"/>
       <c r="Y197" s="7"/>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25">
       <c r="A198" t="str">
-        <f t="shared" ref="A198:Y198" si="43">A181</f>
+        <f t="shared" ref="A198:Y198" si="45">A181</f>
         <v>Average</v>
       </c>
       <c r="B198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="C198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="D198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5548.0769230769229</v>
       </c>
       <c r="F198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5945.6538461538457</v>
       </c>
       <c r="G198" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0196628101790164</v>
       </c>
       <c r="H198" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.98016054173324207</v>
       </c>
-      <c r="I198">
-        <f t="shared" si="43"/>
+      <c r="I198" s="6">
+        <f t="shared" si="45"/>
         <v>23</v>
       </c>
-      <c r="J198">
-        <f t="shared" si="43"/>
+      <c r="J198" s="6">
+        <f t="shared" si="45"/>
         <v>23</v>
       </c>
-      <c r="K198">
-        <f t="shared" si="43"/>
+      <c r="K198" s="6">
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3.3461538461538463</v>
       </c>
       <c r="M198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>53.884615384615387</v>
       </c>
       <c r="N198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>18.7764652014652</v>
       </c>
       <c r="O198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="P198" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.455026923076923</v>
       </c>
       <c r="Q198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10.953846153846154</v>
       </c>
       <c r="R198">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>20</v>
       </c>
       <c r="S198" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>207.19230769230768</v>
       </c>
       <c r="T198" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>57.692307692307693</v>
       </c>
       <c r="U198" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>32.5</v>
       </c>
       <c r="V198" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>42.692307692307693</v>
       </c>
       <c r="W198" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>71.34615384615384</v>
       </c>
       <c r="X198" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>53.46153846153846</v>
       </c>
       <c r="Y198" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>38.46153846153846</v>
       </c>
     </row>
-    <row r="199" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" s="1" customFormat="1">
       <c r="A199" s="1" t="str">
-        <f t="shared" ref="A199:Y199" si="44">A186</f>
+        <f t="shared" ref="A199:Y199" si="46">A186</f>
         <v>Average</v>
       </c>
       <c r="B199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="C199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="D199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1463.2692307692307</v>
       </c>
       <c r="F199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1606.5384615384614</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.1566151630946444</v>
       </c>
       <c r="H199" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.91176984196280442</v>
       </c>
-      <c r="I199" s="1">
-        <f t="shared" si="44"/>
+      <c r="I199" s="14">
+        <f t="shared" si="46"/>
         <v>24</v>
       </c>
-      <c r="J199" s="1">
-        <f t="shared" si="44"/>
+      <c r="J199" s="14">
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="K199" s="1">
-        <f t="shared" si="44"/>
+      <c r="K199" s="14">
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3.2692307692307692</v>
       </c>
       <c r="M199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>74.42307692307692</v>
       </c>
       <c r="N199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>32.384615384615387</v>
       </c>
       <c r="O199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>21</v>
       </c>
       <c r="P199" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.44418076923076921</v>
       </c>
       <c r="Q199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10.876153846153844</v>
       </c>
       <c r="R199" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="S199" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>249.53846153846155</v>
       </c>
       <c r="T199" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>71.15384615384616</v>
       </c>
       <c r="U199" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>37.5</v>
       </c>
       <c r="V199" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>58.846153846153847</v>
       </c>
       <c r="W199" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>57.884615384615387</v>
       </c>
       <c r="X199" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>67.307692307692307</v>
       </c>
       <c r="Y199" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>55.96153846153846</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -30604,68 +30610,81 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="3">
-        <f>AVERAGE(L198:L199)</f>
+        <f t="shared" ref="L200:Y200" si="47">AVERAGE(L198:L199)</f>
         <v>3.3076923076923075</v>
       </c>
       <c r="M200" s="3">
-        <f>AVERAGE(M198:M199)</f>
+        <f t="shared" si="47"/>
         <v>64.15384615384616</v>
       </c>
       <c r="N200" s="3">
-        <f>AVERAGE(N198:N199)</f>
+        <f t="shared" si="47"/>
         <v>25.580540293040293</v>
       </c>
       <c r="O200" s="3">
-        <f>AVERAGE(O198:O199)</f>
+        <f t="shared" si="47"/>
         <v>21.5</v>
       </c>
       <c r="P200" s="11">
-        <f>AVERAGE(P198:P199)</f>
+        <f t="shared" si="47"/>
         <v>0.44960384615384608</v>
       </c>
       <c r="Q200" s="3">
-        <f>AVERAGE(Q198:Q199)</f>
+        <f t="shared" si="47"/>
         <v>10.914999999999999</v>
       </c>
       <c r="R200" s="3">
-        <f>AVERAGE(R198:R199)</f>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="S200" s="3">
-        <f>AVERAGE(S198:S199)</f>
+        <f t="shared" si="47"/>
         <v>228.36538461538461</v>
       </c>
-      <c r="T200" s="3">
-        <f>AVERAGE(T198:T199)</f>
+      <c r="T200" s="18">
+        <f t="shared" si="47"/>
         <v>64.423076923076934</v>
       </c>
-      <c r="U200" s="3">
-        <f>AVERAGE(U198:U199)</f>
+      <c r="U200" s="18">
+        <f t="shared" si="47"/>
         <v>35</v>
       </c>
-      <c r="V200" s="3">
-        <f>AVERAGE(V198:V199)</f>
+      <c r="V200" s="18">
+        <f t="shared" si="47"/>
         <v>50.769230769230774</v>
       </c>
       <c r="W200" s="3">
-        <f>AVERAGE(W198:W199)</f>
+        <f t="shared" si="47"/>
         <v>64.615384615384613</v>
       </c>
-      <c r="X200" s="3">
-        <f>AVERAGE(X198:X199)</f>
+      <c r="X200" s="18">
+        <f t="shared" si="47"/>
         <v>60.384615384615387</v>
       </c>
-      <c r="Y200" s="3">
-        <f>AVERAGE(Y198:Y199)</f>
+      <c r="Y200" s="18">
+        <f t="shared" si="47"/>
         <v>47.21153846153846</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25">
+      <c r="A203" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="B226" t="s">
         <v>317</v>
       </c>
@@ -30673,7 +30692,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="B227" t="s">
         <v>318</v>
       </c>
@@ -30681,7 +30700,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>320</v>
       </c>
@@ -30690,4 +30709,2145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29">
+        <f>COUNTIF(B2:B27, " Male")</f>
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C2:C27)</f>
+        <v>22.884615384615383</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(D2:D27, " Normal")</f>
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(F2:F27," Not at all experienced")</f>
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(G2:G27," Not at all experienced")</f>
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIF(H2:H27," Manual")</f>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f>COUNTIF(I2:I27," Manual")</f>
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <f>COUNTIF(J2:J27," Manual")</f>
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <f>COUNTIF(K2:K27," Manual")</f>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f>COUNTIF(L2:L27," Manual")</f>
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <f>COUNTIF(M2:M27, " Yes")</f>
+        <v>16</v>
+      </c>
+      <c r="N29">
+        <f>COUNTIF(N2:N27, " Yes")</f>
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <f>COUNTIF(O2:O27, " Yes")</f>
+        <v>12</v>
+      </c>
+      <c r="P29">
+        <f>COUNTIF(P2:P27, " Yes")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30">
+        <f>COUNTIF(B2:B27, " Female")</f>
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIF(F2:F27," Slightly experienced")</f>
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIF(G2:G27," Slightly experienced")</f>
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f>COUNTIF(H2:H27," Pattern")</f>
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <f>COUNTIF(I2:I27," Pattern")</f>
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <f>COUNTIF(J2:J27," Pattern")</f>
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <f>COUNTIF(K2:K27," Pattern")</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>COUNTIF(L2:L27," Pattern")</f>
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <f>COUNTIF(M2:M27, " No")</f>
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <f>COUNTIF(N2:N27, " No")</f>
+        <v>13</v>
+      </c>
+      <c r="O30">
+        <f>COUNTIF(O2:O27, " No")</f>
+        <v>12</v>
+      </c>
+      <c r="P30">
+        <f>COUNTIF(P2:P27, " No")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="F31">
+        <f>COUNTIF(F2:F27," Moderately experienced")</f>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(G2:G27," Moderately experienced")</f>
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIF(H2:H27," Sliding Autonomy")</f>
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <f>COUNTIF(I2:I27," Sliding Autonomy")</f>
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <f>COUNTIF(J2:J27," Sliding Autonomy")</f>
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <f>COUNTIF(K2:K27," Sliding Autonomy")</f>
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <f>COUNTIF(L2:L27," Sliding Autonomy")</f>
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <f>COUNTIF(O2:O27," Do not remember")</f>
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <f>COUNTIF(P2:P27," Not sure")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(G2:G27," Very experienced")</f>
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" t="s">
+        <v>48</v>
+      </c>
+      <c r="P32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33">
+        <f>COUNTIF(G2:G27," Extremely experienced")</f>
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" t="s">
+        <v>310</v>
+      </c>
+      <c r="F22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" t="s">
+        <v>310</v>
+      </c>
+      <c r="H27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
+++ b/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Sheet2 (2)" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet4 (2)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="323">
   <si>
     <t>subject</t>
   </si>
@@ -988,17 +988,17 @@
     <t>Questions:</t>
   </si>
   <si>
-    <t xml:space="preserve">Is there any correlation between score/mode and gender, vision, </t>
+    <t>Is there any correlation between score/mode and gender, vision, videogame experience etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,6 +1170,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1204,6 +1205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1379,14 +1381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="A1:Y157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1415,7 +1417,7 @@
     <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1646,7 +1648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1954,7 +1956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2416,7 +2418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2570,7 +2572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2647,7 +2649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3340,7 +3342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3648,7 +3650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17</v>
       </c>
@@ -4726,7 +4728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19</v>
       </c>
@@ -4880,7 +4882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>21</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22</v>
       </c>
@@ -5111,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>25</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>26</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>27</v>
       </c>
@@ -5496,7 +5498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -6189,7 +6191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -6266,7 +6268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -6497,7 +6499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17</v>
       </c>
@@ -6728,7 +6730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>19</v>
       </c>
@@ -6882,7 +6884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20</v>
       </c>
@@ -6959,7 +6961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>21</v>
       </c>
@@ -7036,7 +7038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>22</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>23</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>24</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>25</v>
       </c>
@@ -7344,7 +7346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>26</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>27</v>
       </c>
@@ -7498,7 +7500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7575,7 +7577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -7652,7 +7654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
@@ -7957,7 +7959,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9</v>
       </c>
@@ -8111,7 +8113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10</v>
       </c>
@@ -8188,7 +8190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -8265,7 +8267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12</v>
       </c>
@@ -8342,7 +8344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -8496,7 +8498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>15</v>
       </c>
@@ -8573,7 +8575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>16</v>
       </c>
@@ -8650,7 +8652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>17</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>18</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>22</v>
       </c>
@@ -9112,7 +9114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>23</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>24</v>
       </c>
@@ -9266,7 +9268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>25</v>
       </c>
@@ -9343,7 +9345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>26</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>27</v>
       </c>
@@ -9497,7 +9499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -9651,7 +9653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -9805,7 +9807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -9882,7 +9884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7</v>
       </c>
@@ -9959,7 +9961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8</v>
       </c>
@@ -10036,7 +10038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>9</v>
       </c>
@@ -10113,7 +10115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10</v>
       </c>
@@ -10190,7 +10192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11</v>
       </c>
@@ -10267,7 +10269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14</v>
       </c>
@@ -10498,7 +10500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>15</v>
       </c>
@@ -10575,7 +10577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>16</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>17</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>18</v>
       </c>
@@ -10806,7 +10808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>19</v>
       </c>
@@ -10883,7 +10885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20</v>
       </c>
@@ -10960,7 +10962,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>22</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>23</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
@@ -11268,7 +11270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>25</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>26</v>
       </c>
@@ -11422,7 +11424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>27</v>
       </c>
@@ -11499,7 +11501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -11576,7 +11578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -11653,7 +11655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -11730,7 +11732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -11807,7 +11809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -11884,7 +11886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -11961,7 +11963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -12038,7 +12040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9</v>
       </c>
@@ -12115,7 +12117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10</v>
       </c>
@@ -12192,7 +12194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>11</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>12</v>
       </c>
@@ -12346,7 +12348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>13</v>
       </c>
@@ -12423,7 +12425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -12500,7 +12502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>15</v>
       </c>
@@ -12577,7 +12579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>16</v>
       </c>
@@ -12654,7 +12656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>17</v>
       </c>
@@ -12731,7 +12733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18</v>
       </c>
@@ -12808,7 +12810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19</v>
       </c>
@@ -12885,7 +12887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20</v>
       </c>
@@ -12962,7 +12964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>21</v>
       </c>
@@ -13039,7 +13041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>22</v>
       </c>
@@ -13116,7 +13118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>23</v>
       </c>
@@ -13193,7 +13195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -13270,7 +13272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>25</v>
       </c>
@@ -13347,7 +13349,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>26</v>
       </c>
@@ -13424,7 +13426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>27</v>
       </c>
@@ -13511,14 +13513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -13534,7 +13536,7 @@
     <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13584,7 +13586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13634,7 +13636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13684,7 +13686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13734,7 +13736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13784,7 +13786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13834,7 +13836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13884,7 +13886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13934,7 +13936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -13984,7 +13986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -14034,7 +14036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -14084,7 +14086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -14134,7 +14136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -14184,7 +14186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -14234,7 +14236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -14284,7 +14286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -14334,7 +14336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -14384,7 +14386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -14434,7 +14436,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -14484,7 +14486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -14534,7 +14536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -14584,7 +14586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -14634,7 +14636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -14734,7 +14736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -14784,7 +14786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -14834,7 +14836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -14890,14 +14892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="189.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="249.7109375" bestFit="1" customWidth="1"/>
@@ -14911,7 +14913,7 @@
     <col min="10" max="10" width="155.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -14943,7 +14945,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -14975,7 +14977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -15007,7 +15009,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -15039,7 +15041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -15071,7 +15073,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -15135,7 +15137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -15167,7 +15169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -15231,7 +15233,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -15263,7 +15265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -15295,7 +15297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -15327,7 +15329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -15359,7 +15361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -15391,7 +15393,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -15423,7 +15425,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -15455,7 +15457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>211</v>
       </c>
@@ -15487,7 +15489,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -15519,7 +15521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -15551,7 +15553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>237</v>
       </c>
@@ -15583,7 +15585,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>246</v>
       </c>
@@ -15615,7 +15617,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>255</v>
       </c>
@@ -15647,7 +15649,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>264</v>
       </c>
@@ -15679,7 +15681,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -15711,7 +15713,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -15743,7 +15745,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -15781,14 +15783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -15797,7 +15799,7 @@
     <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15820,7 +15822,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15837,7 +15839,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15854,7 +15856,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15871,7 +15873,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15888,7 +15890,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15905,7 +15907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15922,7 +15924,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15939,7 +15941,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15956,7 +15958,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15973,7 +15975,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15990,7 +15992,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -16007,7 +16009,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -16024,7 +16026,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -16041,7 +16043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -16058,7 +16060,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -16075,7 +16077,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -16092,7 +16094,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -16109,7 +16111,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -16126,7 +16128,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -16143,7 +16145,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -16160,7 +16162,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -16177,7 +16179,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -16194,7 +16196,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -16211,7 +16213,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -16228,7 +16230,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -16245,7 +16247,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -16268,15 +16270,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B204" sqref="B204"/>
+      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -16304,7 +16306,7 @@
     <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16381,7 +16383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16458,7 +16460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16535,7 +16537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16612,7 +16614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16689,7 +16691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -16766,7 +16768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -16843,7 +16845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16920,7 +16922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -16997,7 +16999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -17151,7 +17153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -17228,7 +17230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -17305,7 +17307,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -17382,7 +17384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -17459,7 +17461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -17536,7 +17538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -17613,7 +17615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -17690,7 +17692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -17767,7 +17769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -17844,7 +17846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -17921,7 +17923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -17998,7 +18000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -18075,7 +18077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -18152,7 +18154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -18229,7 +18231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -18306,7 +18308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="1" customFormat="1">
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -18383,7 +18385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="2" customFormat="1">
+    <row r="28" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>313</v>
       </c>
@@ -18480,13 +18482,13 @@
         <v>50.96153846153846</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O29">
         <f>COUNTIF(O2:O27,"No")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -18563,7 +18565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -18640,7 +18642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -18717,7 +18719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -18794,7 +18796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -18871,7 +18873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -18948,7 +18950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -19025,7 +19027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -19102,7 +19104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -19179,7 +19181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11</v>
       </c>
@@ -19256,7 +19258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -19333,7 +19335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -19410,7 +19412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -19487,7 +19489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -19564,7 +19566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>16</v>
       </c>
@@ -19641,7 +19643,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>17</v>
       </c>
@@ -19718,7 +19720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18</v>
       </c>
@@ -19795,7 +19797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19</v>
       </c>
@@ -19872,7 +19874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -19949,7 +19951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21</v>
       </c>
@@ -20026,7 +20028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22</v>
       </c>
@@ -20103,7 +20105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>23</v>
       </c>
@@ -20180,7 +20182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>24</v>
       </c>
@@ -20257,7 +20259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>25</v>
       </c>
@@ -20334,7 +20336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -20411,7 +20413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="1" customFormat="1">
+    <row r="56" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>27</v>
       </c>
@@ -20488,7 +20490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>313</v>
       </c>
@@ -20586,13 +20588,13 @@
         <v>37.692307692307693</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O58">
         <f>COUNTIF(O31:O56,"No")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -20669,7 +20671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -20746,7 +20748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -20823,7 +20825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -20900,7 +20902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -20977,7 +20979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -21054,7 +21056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -21131,7 +21133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -21208,7 +21210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -21285,7 +21287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -21362,7 +21364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -21439,7 +21441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>13</v>
       </c>
@@ -21516,7 +21518,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -21593,7 +21595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15</v>
       </c>
@@ -21670,7 +21672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
@@ -21747,7 +21749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>17</v>
       </c>
@@ -21824,7 +21826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18</v>
       </c>
@@ -21901,7 +21903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19</v>
       </c>
@@ -21978,7 +21980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20</v>
       </c>
@@ -22055,7 +22057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21</v>
       </c>
@@ -22132,7 +22134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>22</v>
       </c>
@@ -22209,7 +22211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23</v>
       </c>
@@ -22286,7 +22288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>24</v>
       </c>
@@ -22363,7 +22365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>25</v>
       </c>
@@ -22440,7 +22442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>26</v>
       </c>
@@ -22517,7 +22519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="1" customFormat="1">
+    <row r="85" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>27</v>
       </c>
@@ -22594,7 +22596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -22692,13 +22694,13 @@
         <v>38.46153846153846</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O87">
         <f>COUNTIF(O60:O85,"No")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -22775,7 +22777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -22852,7 +22854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -22929,7 +22931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -23006,7 +23008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -23083,7 +23085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -23157,7 +23159,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -23234,7 +23236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9</v>
       </c>
@@ -23311,7 +23313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -23388,7 +23390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>11</v>
       </c>
@@ -23465,7 +23467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12</v>
       </c>
@@ -23542,7 +23544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>13</v>
       </c>
@@ -23619,7 +23621,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14</v>
       </c>
@@ -23696,7 +23698,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15</v>
       </c>
@@ -23773,7 +23775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>16</v>
       </c>
@@ -23850,7 +23852,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>17</v>
       </c>
@@ -23927,7 +23929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>18</v>
       </c>
@@ -24004,7 +24006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>19</v>
       </c>
@@ -24081,7 +24083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20</v>
       </c>
@@ -24158,7 +24160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>21</v>
       </c>
@@ -24235,7 +24237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>22</v>
       </c>
@@ -24312,7 +24314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>23</v>
       </c>
@@ -24389,7 +24391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>24</v>
       </c>
@@ -24466,7 +24468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>25</v>
       </c>
@@ -24543,7 +24545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>26</v>
       </c>
@@ -24620,7 +24622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:25" s="1" customFormat="1">
+    <row r="114" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>27</v>
       </c>
@@ -24697,7 +24699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>313</v>
       </c>
@@ -24795,13 +24797,13 @@
         <v>59.230769230769234</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O116">
         <f>COUNTIF(O89:O114,"No")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -24878,7 +24880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -24955,7 +24957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -25032,7 +25034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -25109,7 +25111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -25186,7 +25188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -25263,7 +25265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>8</v>
       </c>
@@ -25340,7 +25342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>9</v>
       </c>
@@ -25417,7 +25419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>10</v>
       </c>
@@ -25494,7 +25496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>11</v>
       </c>
@@ -25571,7 +25573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>12</v>
       </c>
@@ -25648,7 +25650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13</v>
       </c>
@@ -25725,7 +25727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>14</v>
       </c>
@@ -25802,7 +25804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15</v>
       </c>
@@ -25879,7 +25881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>16</v>
       </c>
@@ -25956,7 +25958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>17</v>
       </c>
@@ -26033,7 +26035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>18</v>
       </c>
@@ -26110,7 +26112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>19</v>
       </c>
@@ -26187,7 +26189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20</v>
       </c>
@@ -26264,7 +26266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>21</v>
       </c>
@@ -26341,7 +26343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>22</v>
       </c>
@@ -26418,7 +26420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>23</v>
       </c>
@@ -26495,7 +26497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
@@ -26572,7 +26574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>25</v>
       </c>
@@ -26649,7 +26651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>26</v>
       </c>
@@ -26726,7 +26728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="1" customFormat="1">
+    <row r="143" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>27</v>
       </c>
@@ -26803,7 +26805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>313</v>
       </c>
@@ -26901,13 +26903,13 @@
         <v>50.57692307692308</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O145">
         <f>COUNTIF(O118:O143,"No")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -26984,7 +26986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -27061,7 +27063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -27138,7 +27140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -27215,7 +27217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -27292,7 +27294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -27369,7 +27371,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -27446,7 +27448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -27523,7 +27525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -27600,7 +27602,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>11</v>
       </c>
@@ -27677,7 +27679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>12</v>
       </c>
@@ -27754,7 +27756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>13</v>
       </c>
@@ -27831,7 +27833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -27908,7 +27910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>15</v>
       </c>
@@ -27985,7 +27987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>16</v>
       </c>
@@ -28062,7 +28064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -28139,7 +28141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>18</v>
       </c>
@@ -28216,7 +28218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>19</v>
       </c>
@@ -28293,7 +28295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>20</v>
       </c>
@@ -28370,7 +28372,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>21</v>
       </c>
@@ -28447,7 +28449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>22</v>
       </c>
@@ -28524,7 +28526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>23</v>
       </c>
@@ -28601,7 +28603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -28678,7 +28680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>25</v>
       </c>
@@ -28755,7 +28757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>26</v>
       </c>
@@ -28832,7 +28834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:25" s="1" customFormat="1">
+    <row r="172" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>27</v>
       </c>
@@ -28909,7 +28911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>313</v>
       </c>
@@ -29007,18 +29009,18 @@
         <v>55.96153846153846</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O174">
         <f>COUNTIF(O147:O172,"No")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f>A28</f>
         <v>Average</v>
@@ -29120,7 +29122,7 @@
         <v>50.96153846153846</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f>A57</f>
         <v>Average</v>
@@ -29222,7 +29224,7 @@
         <v>37.692307692307693</v>
       </c>
     </row>
-    <row r="181" spans="1:25" s="1" customFormat="1">
+    <row r="181" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="str">
         <f>A86</f>
         <v>Average</v>
@@ -29324,7 +29326,7 @@
         <v>38.46153846153846</v>
       </c>
     </row>
-    <row r="182" spans="1:25" s="2" customFormat="1">
+    <row r="182" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E182" s="3">
         <f>AVERAGE(E179:E181)</f>
         <v>4362.5128205128203</v>
@@ -29401,7 +29403,7 @@
         <v>42.371794871794869</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f>A115</f>
         <v>Average</v>
@@ -29503,7 +29505,7 @@
         <v>59.230769230769234</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f>A144</f>
         <v>Average</v>
@@ -29605,7 +29607,7 @@
         <v>50.57692307692308</v>
       </c>
     </row>
-    <row r="186" spans="1:25" s="1" customFormat="1">
+    <row r="186" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="str">
         <f>A173</f>
         <v>Average</v>
@@ -29707,7 +29709,7 @@
         <v>55.96153846153846</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -29788,12 +29790,12 @@
         <v>55.256410256410255</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f>A179</f>
         <v>Average</v>
@@ -29895,7 +29897,7 @@
         <v>50.96153846153846</v>
       </c>
     </row>
-    <row r="191" spans="1:25" s="1" customFormat="1">
+    <row r="191" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="str">
         <f t="shared" ref="A191:Y191" si="40">A184</f>
         <v>Average</v>
@@ -29997,7 +29999,7 @@
         <v>59.230769230769234</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -30078,7 +30080,7 @@
         <v>55.096153846153847</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S193" s="7"/>
       <c r="T193" s="7"/>
       <c r="U193" s="7"/>
@@ -30087,7 +30089,7 @@
       <c r="X193" s="7"/>
       <c r="Y193" s="7"/>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:Y194" si="42">A180</f>
         <v>Average</v>
@@ -30189,7 +30191,7 @@
         <v>37.692307692307693</v>
       </c>
     </row>
-    <row r="195" spans="1:25" s="1" customFormat="1">
+    <row r="195" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="str">
         <f t="shared" ref="A195:Y195" si="43">A185</f>
         <v>Average</v>
@@ -30291,7 +30293,7 @@
         <v>50.57692307692308</v>
       </c>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -30372,7 +30374,7 @@
         <v>44.134615384615387</v>
       </c>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S197" s="7"/>
       <c r="T197" s="7"/>
       <c r="U197" s="7"/>
@@ -30381,7 +30383,7 @@
       <c r="X197" s="7"/>
       <c r="Y197" s="7"/>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" ref="A198:Y198" si="45">A181</f>
         <v>Average</v>
@@ -30483,7 +30485,7 @@
         <v>38.46153846153846</v>
       </c>
     </row>
-    <row r="199" spans="1:25" s="1" customFormat="1">
+    <row r="199" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="str">
         <f t="shared" ref="A199:Y199" si="46">A186</f>
         <v>Average</v>
@@ -30585,7 +30587,7 @@
         <v>55.96153846153846</v>
       </c>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -30666,12 +30668,12 @@
         <v>47.21153846153846</v>
       </c>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -30679,12 +30681,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>317</v>
       </c>
@@ -30692,7 +30699,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>318</v>
       </c>
@@ -30700,7 +30707,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>320</v>
       </c>
@@ -30712,14 +30719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -30735,7 +30742,7 @@
     <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30785,7 +30792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30835,7 +30842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30885,7 +30892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30935,7 +30942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -30985,7 +30992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -31035,7 +31042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -31085,7 +31092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -31135,7 +31142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -31185,7 +31192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -31235,7 +31242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -31285,7 +31292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -31335,7 +31342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -31385,7 +31392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -31435,7 +31442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -31485,7 +31492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -31535,7 +31542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -31585,7 +31592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -31635,7 +31642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -31685,7 +31692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -31735,7 +31742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -31785,7 +31792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -31835,7 +31842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -31885,7 +31892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -31935,7 +31942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -31985,7 +31992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -32035,7 +32042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -32085,7 +32092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>COUNTIF(B2:B27, " Male")</f>
         <v>14</v>
@@ -32143,7 +32150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>COUNTIF(B2:B27, " Female")</f>
         <v>12</v>
@@ -32193,7 +32200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F31">
         <f>COUNTIF(F2:F27," Moderately experienced")</f>
         <v>2</v>
@@ -32231,7 +32238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>49</v>
       </c>
@@ -32252,7 +32259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -32291,7 +32298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>46</v>
       </c>
@@ -32317,7 +32324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>50</v>
       </c>
@@ -32340,22 +32347,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>58</v>
       </c>
@@ -32366,14 +32373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -32382,7 +32389,7 @@
     <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -32405,7 +32412,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32422,7 +32429,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32439,7 +32446,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32456,7 +32463,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -32473,7 +32480,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -32490,7 +32497,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32507,7 +32514,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32524,7 +32531,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32541,7 +32548,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -32558,7 +32565,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -32575,7 +32582,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -32592,7 +32599,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -32609,7 +32616,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -32626,7 +32633,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -32643,7 +32650,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -32660,7 +32667,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -32677,7 +32684,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -32694,7 +32701,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -32711,7 +32718,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -32728,7 +32735,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -32745,7 +32752,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -32762,7 +32769,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -32779,7 +32786,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -32796,7 +32803,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -32813,7 +32820,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -32830,7 +32837,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -32847,7 +32854,97 @@
         <v>310</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(B$2:B$27, "Less")</f>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:H29" si="0">COUNTIF(C$2:C$27, "Less")</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF(B$2:B$27, "Same")</f>
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:H30" si="1">COUNTIF(C$2:C$27, "Same")</f>
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(B$2:B$27, "More")</f>
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:H31" si="2">COUNTIF(C$2:C$27, "More")</f>
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A29:A30">
+    <sortCondition ref="A30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
+++ b/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
@@ -16,13 +16,14 @@
     <sheet name="Across scenarios Across Methods" sheetId="11" r:id="rId7"/>
     <sheet name="Survey" sheetId="6" r:id="rId8"/>
     <sheet name="Comparison" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="367">
   <si>
     <t>subject</t>
   </si>
@@ -992,6 +993,138 @@
   <si>
     <t>Summary first across scenarios and then across flying methods</t>
   </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Endpoints</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Comparing scenario 1 vs scenario 2:</t>
+  </si>
+  <si>
+    <t>No significant performance difference in scenario 1 vs scenario 2 when averaged across all flying methods.</t>
+  </si>
+  <si>
+    <t>Users had significantly more mouse clicks in scenario 2. (Because scenario 2 is more complex.)</t>
+  </si>
+  <si>
+    <t>Users spent about 10% more time on average in scenario 2. (Because scenario 2 is harder and takes longer to finish.)</t>
+  </si>
+  <si>
+    <t>Users had about 10% more tries in scenario 1. (Because scenario 1 is easier so user was able to finsih sooner.)</t>
+  </si>
+  <si>
+    <t>Users performed about the same with respect to secondary task in both scenarios.</t>
+  </si>
+  <si>
+    <t>Users' mental workload is much higher in scenario 2 as indicatecd by raw NASA TLX.</t>
+  </si>
+  <si>
+    <t>Mental, Temporal, Performance, Effort, Performance, scenario 2 is significantly harder.</t>
+  </si>
+  <si>
+    <t>Comparing manual, pattern, and sliding autonomy:</t>
+  </si>
+  <si>
+    <t>Significant performance difference from manual to pattern to sliding autonomy when averaged across both scenarios.</t>
+  </si>
+  <si>
+    <t>About 10% of the users were able to beat LHC using pattern mode, while 90% can beat LHC using sliding autonomy.</t>
+  </si>
+  <si>
+    <t>About 58% of the users were able to beat EA using sliding autonomy.</t>
+  </si>
+  <si>
+    <t>Only 11% of the users were able to beat LHC with 1 human input.</t>
+  </si>
+  <si>
+    <t>No significant difference in time spent.</t>
+  </si>
+  <si>
+    <t>More retries in pattern and sliding autonomy. (Because it just takes longer to plan path using manual.)</t>
+  </si>
+  <si>
+    <t>Users had significantly more mouse clicks in pattern and sliding autonomy than manual. And more mouse clicks in pattern than sliding autonomy.</t>
+  </si>
+  <si>
+    <t>Also mouse clicks per try.</t>
+  </si>
+  <si>
+    <t>Users performed about the same with respect to secondary task in all three flying methods.</t>
+  </si>
+  <si>
+    <t>Users' mental workload is much higher with manual method as indicatecd by raw NASA TLX. About same for pattern and sliding autonomy.</t>
+  </si>
+  <si>
+    <t>Physical, Temporal, Performance, Effort, Frustration, manual is significantly higher than pattern and sliding autonomy. Pattern and sliding autonomy about the same.</t>
+  </si>
+  <si>
+    <t>Comparing manual, pattern, and sliding autonomy in scenario 1:</t>
+  </si>
+  <si>
+    <t>Comparing manual, pattern, and sliding autonomy in scenario 2:</t>
+  </si>
+  <si>
+    <t>Significant performance difference from manual to pattern to sliding autonomy.</t>
+  </si>
+  <si>
+    <t>Only with sliding autonomy, 88% can beat LHC.</t>
+  </si>
+  <si>
+    <t>Only with sliding autonomy, 88% can beat EA.</t>
+  </si>
+  <si>
+    <t>Only with sliding autonomy, 8% of the users were able to beat LHC with 1 human input.</t>
+  </si>
+  <si>
+    <t>Physical, Temporal, Effort, Frustration, manual is significantly higher than pattern and sliding autonomy. Pattern and sliding autonomy about the same.</t>
+  </si>
+  <si>
+    <t>With pattern 19% can beat LHC, with sliding autonomy, 92% can beat LHC.</t>
+  </si>
+  <si>
+    <t>Only with sliding autonomy, 27% can beat EA.</t>
+  </si>
+  <si>
+    <t>Only with sliding autonomy, 15% of the users were able to beat LHC with 1 human input.</t>
+  </si>
+  <si>
+    <t>Temporal, Performance, manual is significantly higher than pattern and sliding autonomy. Pattern and sliding autonomy about the same.</t>
+  </si>
+  <si>
+    <t>Mental and Effort, Pattern is lowest. Frustration, no significant difference.</t>
+  </si>
+  <si>
+    <t>Comparing scenario 1 to scenario 2:</t>
+  </si>
+  <si>
+    <t>No significant difference in performance.</t>
+  </si>
+  <si>
+    <t>For all three methods, more mouse clicks and mouse clicks per try in scenario 2.</t>
+  </si>
+  <si>
+    <t>For pattern method, significant more retries in scenario 2.</t>
+  </si>
+  <si>
+    <t>Secondary task performance about the same for all three methods.</t>
+  </si>
+  <si>
+    <t>Raw NASA TLX no significant difference for manual and pattern. But significant for sliding autonomy.</t>
+  </si>
 </sst>
 </file>
 
@@ -1069,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1086,6 +1219,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,6 +1235,830 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="117"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="17"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$H$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$83:$H$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.17707150964812712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.9670828603859332E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4404086265607194E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$I$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$I$83:$I$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0431328036322305E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.4131668558456312E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.1940976163450649E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$J$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$J$83:$J$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>-0.13053348467650405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6481271282633507E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0783200908058999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$K$83:$K$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>-3.8592508513053403E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7026106696934606E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.9727582292850006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$L$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$L$83:$L$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="3">
+                  <c:v>-6.6969353007945598E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$M$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$M$83:$M$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="4">
+                  <c:v>-1.4188422247446431E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4267877412031864E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$N$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$N$83:$N$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$O$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$G$83:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$O$83:$O$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="6">
+                  <c:v>-8.796821793416576E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5891032917139669E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="cone"/>
+        <c:axId val="558794752"/>
+        <c:axId val="551960576"/>
+        <c:axId val="73013760"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="558794752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="540000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                  <a:t> of segments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.31640050735284886"/>
+              <c:y val="0.82837756391562167"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525"/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551960576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551960576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="558794752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="73013760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-3600000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Number of constraints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.7149944869331526"/>
+              <c:y val="0.69020806555559155"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551960576"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,8 +2351,10 @@
   <dimension ref="A1:AH157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15407,6 +16369,1630 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O91"/>
+  <sheetViews>
+    <sheetView topLeftCell="D67" workbookViewId="0">
+      <selection activeCell="Q94" sqref="G82:Q94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.9612594790636334</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>C2</f>
+        <v>0.9612594790636334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.97197494230135184</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.9576327068908671</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(C3:C4)</f>
+        <v>0.96480382459610947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.96488625123639959</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.98302011210023077</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.99307616221562811</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(C5:C7)</f>
+        <v>0.98032750851741957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.98615232443125622</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(C8:C9)</f>
+        <v>0.99307616221562811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.98038245961094628</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>C10</f>
+        <v>0.98038245961094628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.97378832838773488</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>C11</f>
+        <v>0.97378832838773488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.99736234751071551</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.99109792284866471</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.99043850972634351</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(C12:C14)</f>
+        <v>0.99296626002857458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.99439498846027041</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.97972304648862507</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(C15:C16)</f>
+        <v>0.9870590174744478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.99406528189910981</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.99010880316518302</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>27</v>
+      </c>
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.98648203099241671</v>
+      </c>
+      <c r="D19" s="16">
+        <v>4</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGE(C17:C19)</f>
+        <v>0.99021870535223655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.96010550609957135</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>C20</f>
+        <v>0.96010550609957135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.96604022420046154</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.97659083415759973</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(C21:C22)</f>
+        <v>0.97131552917903063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.99455984174085066</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>C23</f>
+        <v>0.99455984174085066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.97757995384108143</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f>C24</f>
+        <v>0.97757995384108143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.97560171447411803</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.96818331684800529</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(C25:C26)</f>
+        <v>0.97189251566106161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.96966699637322784</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f>C27</f>
+        <v>0.96966699637322784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.78830874006810447</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0.78830874006810447</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGE(C31:C32)</f>
+        <v>0.78830874006810447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
+        <f>1737/1762</f>
+        <v>0.9858115777525539</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.82746878547105562</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
+        <f>AVERAGE(C33:C34)</f>
+        <v>0.90664018161180482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0.90124858115777529</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>C35</f>
+        <v>0.90124858115777529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0.83484676503972755</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f>C36</f>
+        <v>0.83484676503972755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.87570942111237227</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>C37</f>
+        <v>0.87570942111237227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0.87343927355278095</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>C38</f>
+        <v>0.87343927355278095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0.95573212258796825</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>C39</f>
+        <v>0.95573212258796825</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0.85584562996594782</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0.99772985244040857</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE(C40:C41)</f>
+        <v>0.92678774120317819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0.97616345062429055</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f>C42</f>
+        <v>0.97616345062429055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0.96708286038592506</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f>C43</f>
+        <v>0.96708286038592506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>0.92622020431328034</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0.85754824063564128</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>27</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0.91146424517593638</v>
+      </c>
+      <c r="D46" s="16">
+        <v>4</v>
+      </c>
+      <c r="E46" s="16">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(C44:C46)</f>
+        <v>0.898410896708286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0.9614074914869466</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f>C47</f>
+        <v>0.9614074914869466</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0.94040862656072643</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0.98751418842224747</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <f>AVERAGE(C48:C49)</f>
+        <v>0.96396140749148695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0.92111237230419973</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <f>C50</f>
+        <v>0.92111237230419973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0.87741203178206584</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <f>C51</f>
+        <v>0.87741203178206584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0.97956867196367758</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>AVERAGE(C52:C53)</f>
+        <v>0.98978433598183879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0.94948921679909193</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <f>C54</f>
+        <v>0.94948921679909193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0.99432463110102154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0.82179341657207716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>18</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.93586833144154369</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>326</v>
+      </c>
+      <c r="H60" t="s">
+        <v>327</v>
+      </c>
+      <c r="I60" t="s">
+        <v>328</v>
+      </c>
+      <c r="J60" t="s">
+        <v>323</v>
+      </c>
+      <c r="K60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0.78830874006810447</v>
+      </c>
+      <c r="H61">
+        <f>1701/1762</f>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I61">
+        <f>G61-H61</f>
+        <v>-0.17707150964812712</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>-0.17707150964812712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G62" s="3">
+        <f>1737/1762</f>
+        <v>0.9858115777525539</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H77" si="0">1701/1762</f>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62:I77" si="1">G62-H62</f>
+        <v>2.0431328036322305E-2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2.0431328036322305E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0.90124858115777529</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>-6.4131668558456312E-2</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>-6.4131668558456312E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0.83484676503972755</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>-0.13053348467650405</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>-0.13053348467650405</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0.87570942111237227</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>-8.9670828603859332E-2</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>-8.9670828603859332E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0.87343927355278095</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>-9.1940976163450649E-2</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>-9.1940976163450649E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0.95573212258796825</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>-9.6481271282633507E-3</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>-9.6481271282633507E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0.92678774120317819</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>-3.8592508513053403E-2</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>-3.8592508513053403E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0.97616345062429055</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>1.0783200908058954E-2</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1.0783200908058954E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0.96708286038592506</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>1.7026106696934606E-3</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>1.7026106696934606E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0.898410896708286</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>-6.6969353007945598E-2</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>-6.6969353007945598E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0.9614074914869466</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>-3.9727582292850006E-3</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>-3.9727582292850006E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0.96396140749148695</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>-1.4188422247446431E-3</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <v>-1.4188422247446431E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0.92111237230419973</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>-4.4267877412031864E-2</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>-4.4267877412031864E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0.87741203178206584</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>-8.796821793416576E-2</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+      <c r="K75">
+        <v>7</v>
+      </c>
+      <c r="L75">
+        <v>-8.796821793416576E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0.98978433598183879</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>2.4404086265607194E-2</v>
+      </c>
+      <c r="J76">
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>2.4404086265607194E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0.94948921679909193</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="0"/>
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>-1.5891032917139669E-2</v>
+      </c>
+      <c r="J77">
+        <v>8</v>
+      </c>
+      <c r="K77">
+        <v>7</v>
+      </c>
+      <c r="L77">
+        <v>-1.5891032917139669E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5">
+        <v>-0.17707150964812712</v>
+      </c>
+      <c r="I83" s="5">
+        <v>2.0431328036322305E-2</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5">
+        <v>-6.4131668558456312E-2</v>
+      </c>
+      <c r="J84" s="5">
+        <v>-0.13053348467650405</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85" s="5">
+        <v>-8.9670828603859332E-2</v>
+      </c>
+      <c r="I85" s="5">
+        <v>-9.1940976163450649E-2</v>
+      </c>
+      <c r="J85" s="5">
+        <v>-9.6481271282633507E-3</v>
+      </c>
+      <c r="K85" s="5">
+        <v>-3.8592508513053403E-2</v>
+      </c>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5">
+        <v>1.0783200908058999E-2</v>
+      </c>
+      <c r="K86" s="5">
+        <v>1.7026106696934606E-3</v>
+      </c>
+      <c r="L86" s="5">
+        <v>-6.6969353007945598E-2</v>
+      </c>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5">
+        <v>-3.9727582292850006E-3</v>
+      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5">
+        <v>-1.4188422247446431E-3</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>6</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5">
+        <v>-4.4267877412031864E-2</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>7</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5">
+        <v>-8.796821793416576E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>8</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2.4404086265607194E-2</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5">
+        <v>-1.5891032917139669E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A31:E56">
+    <sortCondition ref="D31:D56"/>
+    <sortCondition ref="E31:E56"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
@@ -18172,11 +20758,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH176"/>
+  <dimension ref="A1:AH188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G184" sqref="G184"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32507,10 +35093,14 @@
         <v>22.044214341803745</v>
       </c>
     </row>
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G168" s="17"/>
+    </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="G169" s="17"/>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="str">
@@ -32537,14 +35127,6 @@
         <f t="shared" si="8"/>
         <v>0.76992822541783978</v>
       </c>
-      <c r="G170">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="H170">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
       <c r="I170">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -32631,14 +35213,7 @@
         <f t="shared" si="10"/>
         <v>0.74171250618469697</v>
       </c>
-      <c r="G171" s="1">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="H171" s="6">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
+      <c r="H171" s="15"/>
       <c r="I171" s="1">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -32716,11 +35291,11 @@
       </c>
       <c r="G172">
         <f t="shared" si="12"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <f t="shared" si="12"/>
@@ -32746,7 +35321,7 @@
         <f>N170-N171</f>
         <v>-2.1025641025673725E-4</v>
       </c>
-      <c r="O172">
+      <c r="O172" s="12">
         <f t="shared" si="12"/>
         <v>0.10628205128205614</v>
       </c>
@@ -33055,6 +35630,107 @@
         <f t="shared" si="19"/>
         <v>-2.2727932773205204</v>
       </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:AH157">
@@ -33069,11 +35745,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH180"/>
+  <dimension ref="A1:AH196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P174" sqref="P174:P175"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185:L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47566,9 +50242,49 @@
         <v>19.799142233503545</v>
       </c>
     </row>
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G170" s="5">
+        <f>G173/2/26</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="5">
+        <f>H173/2/26</f>
+        <v>0</v>
+      </c>
+      <c r="I170" s="5">
+        <f>I173/2/26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G171" s="7">
+        <f>G174/2/26</f>
+        <v>9.6153846153846159E-2</v>
+      </c>
+      <c r="H171" s="5">
+        <f>H174/2/26</f>
+        <v>0</v>
+      </c>
+      <c r="I171" s="5">
+        <f>I174/2/26</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>319</v>
+      </c>
+      <c r="G172" s="7">
+        <f>G175/2/26</f>
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="H172" s="7">
+        <f>H175/2/26</f>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="I172" s="7">
+        <f>I175/2/26</f>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.25">
@@ -48134,6 +50850,187 @@
         <f t="shared" si="23"/>
         <v>19.799142233503545</v>
       </c>
+    </row>
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+    </row>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+    </row>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="11"/>
+    </row>
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+    </row>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+    </row>
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
+    </row>
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="11"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:AH157">
@@ -48147,11 +51044,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH230"/>
+  <dimension ref="A1:AK268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H220" sqref="H220"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D215" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57583,7 +60482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23</v>
       </c>
@@ -57672,7 +60571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>24</v>
       </c>
@@ -57761,7 +60660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>25</v>
       </c>
@@ -57850,7 +60749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>26</v>
       </c>
@@ -57939,7 +60838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>27</v>
       </c>
@@ -58028,7 +60927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>311</v>
       </c>
@@ -58121,7 +61020,7 @@
         <v>59.42307692307692</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>318</v>
       </c>
@@ -58194,7 +61093,7 @@
         <v>21.602172255443346</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -58282,8 +61181,14 @@
       <c r="AH122">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ122">
+        <v>1</v>
+      </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -58371,8 +61276,14 @@
       <c r="AH123">
         <v>75</v>
       </c>
-    </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ123">
+        <v>3</v>
+      </c>
+      <c r="AK123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -58460,8 +61371,14 @@
       <c r="AH124">
         <v>100</v>
       </c>
-    </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ124">
+        <v>6</v>
+      </c>
+      <c r="AK124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -58549,8 +61466,14 @@
       <c r="AH125">
         <v>40</v>
       </c>
-    </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ125">
+        <v>3</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -58638,8 +61561,14 @@
       <c r="AH126">
         <v>45</v>
       </c>
-    </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ126">
+        <v>1</v>
+      </c>
+      <c r="AK126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -58727,8 +61656,14 @@
       <c r="AH127">
         <v>80</v>
       </c>
-    </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -58816,8 +61751,14 @@
       <c r="AH128">
         <v>25</v>
       </c>
-    </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ128">
+        <v>4</v>
+      </c>
+      <c r="AK128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9</v>
       </c>
@@ -58905,8 +61846,14 @@
       <c r="AH129">
         <v>75</v>
       </c>
-    </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ129">
+        <v>4</v>
+      </c>
+      <c r="AK129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10</v>
       </c>
@@ -58994,8 +61941,14 @@
       <c r="AH130">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ130">
+        <v>1</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>11</v>
       </c>
@@ -59083,8 +62036,14 @@
       <c r="AH131">
         <v>70</v>
       </c>
-    </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ131">
+        <v>6</v>
+      </c>
+      <c r="AK131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>12</v>
       </c>
@@ -59172,8 +62131,14 @@
       <c r="AH132">
         <v>80</v>
       </c>
-    </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ132">
+        <v>3</v>
+      </c>
+      <c r="AK132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -59261,8 +62226,14 @@
       <c r="AH133">
         <v>55</v>
       </c>
-    </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ133">
+        <v>4</v>
+      </c>
+      <c r="AK133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>14</v>
       </c>
@@ -59350,8 +62321,14 @@
       <c r="AH134">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ134">
+        <v>3</v>
+      </c>
+      <c r="AK134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>15</v>
       </c>
@@ -59439,8 +62416,14 @@
       <c r="AH135">
         <v>65</v>
       </c>
-    </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ135">
+        <v>6</v>
+      </c>
+      <c r="AK135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>16</v>
       </c>
@@ -59528,8 +62511,14 @@
       <c r="AH136">
         <v>90</v>
       </c>
-    </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ136">
+        <v>3</v>
+      </c>
+      <c r="AK136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>17</v>
       </c>
@@ -59617,8 +62606,14 @@
       <c r="AH137">
         <v>75</v>
       </c>
-    </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ137">
+        <v>2</v>
+      </c>
+      <c r="AK137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18</v>
       </c>
@@ -59706,8 +62701,14 @@
       <c r="AH138">
         <v>75</v>
       </c>
-    </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ138">
+        <v>2</v>
+      </c>
+      <c r="AK138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>19</v>
       </c>
@@ -59795,8 +62796,14 @@
       <c r="AH139">
         <v>80</v>
       </c>
-    </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AK139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20</v>
       </c>
@@ -59884,8 +62891,14 @@
       <c r="AH140">
         <v>80</v>
       </c>
-    </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ140">
+        <v>4</v>
+      </c>
+      <c r="AK140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>21</v>
       </c>
@@ -59973,8 +62986,14 @@
       <c r="AH141">
         <v>90</v>
       </c>
-    </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ141">
+        <v>6</v>
+      </c>
+      <c r="AK141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>22</v>
       </c>
@@ -60062,8 +63081,14 @@
       <c r="AH142">
         <v>85</v>
       </c>
-    </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>23</v>
       </c>
@@ -60151,8 +63176,14 @@
       <c r="AH143">
         <v>60</v>
       </c>
-    </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ143">
+        <v>3</v>
+      </c>
+      <c r="AK143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24</v>
       </c>
@@ -60240,8 +63271,14 @@
       <c r="AH144">
         <v>75</v>
       </c>
-    </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ144">
+        <v>3</v>
+      </c>
+      <c r="AK144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>25</v>
       </c>
@@ -60329,8 +63366,14 @@
       <c r="AH145">
         <v>85</v>
       </c>
-    </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ145">
+        <v>4</v>
+      </c>
+      <c r="AK145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>26</v>
       </c>
@@ -60418,8 +63461,14 @@
       <c r="AH146">
         <v>95</v>
       </c>
-    </row>
-    <row r="147" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ146">
+        <v>5</v>
+      </c>
+      <c r="AK146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>27</v>
       </c>
@@ -60507,8 +63556,14 @@
       <c r="AH147" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ147" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>311</v>
       </c>
@@ -60601,7 +63656,7 @@
         <v>71.34615384615384</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>318</v>
       </c>
@@ -60674,7 +63729,7 @@
         <v>18.196576178374464</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -60762,8 +63817,14 @@
       <c r="AH152">
         <v>75</v>
       </c>
-    </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ152">
+        <v>1</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
@@ -60851,8 +63912,14 @@
       <c r="AH153">
         <v>75</v>
       </c>
-    </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ153">
+        <v>4</v>
+      </c>
+      <c r="AK153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -60940,8 +64007,14 @@
       <c r="AH154">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ154">
+        <v>5</v>
+      </c>
+      <c r="AK154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -61029,8 +64102,14 @@
       <c r="AH155">
         <v>35</v>
       </c>
-    </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ155">
+        <v>3</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6</v>
       </c>
@@ -61118,8 +64197,14 @@
       <c r="AH156">
         <v>55</v>
       </c>
-    </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ156">
+        <v>1</v>
+      </c>
+      <c r="AK156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -61207,8 +64292,14 @@
       <c r="AH157">
         <v>60</v>
       </c>
-    </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ157">
+        <v>2</v>
+      </c>
+      <c r="AK157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
@@ -61296,8 +64387,14 @@
       <c r="AH158">
         <v>25</v>
       </c>
-    </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ158">
+        <v>4</v>
+      </c>
+      <c r="AK158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9</v>
       </c>
@@ -61385,8 +64482,14 @@
       <c r="AH159">
         <v>80</v>
       </c>
-    </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ159">
+        <v>4</v>
+      </c>
+      <c r="AK159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>10</v>
       </c>
@@ -61475,7 +64578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>11</v>
       </c>
@@ -61563,8 +64666,14 @@
       <c r="AH161">
         <v>35</v>
       </c>
-    </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ161">
+        <v>8</v>
+      </c>
+      <c r="AK161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>12</v>
       </c>
@@ -61652,8 +64761,14 @@
       <c r="AH162">
         <v>75</v>
       </c>
-    </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ162">
+        <v>8</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>13</v>
       </c>
@@ -61741,8 +64856,14 @@
       <c r="AH163">
         <v>30</v>
       </c>
-    </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ163">
+        <v>3</v>
+      </c>
+      <c r="AK163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>14</v>
       </c>
@@ -61830,8 +64951,14 @@
       <c r="AH164">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ164">
+        <v>5</v>
+      </c>
+      <c r="AK164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>15</v>
       </c>
@@ -61920,7 +65047,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>16</v>
       </c>
@@ -62008,8 +65135,14 @@
       <c r="AH166">
         <v>60</v>
       </c>
-    </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ166">
+        <v>5</v>
+      </c>
+      <c r="AK166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>17</v>
       </c>
@@ -62097,8 +65230,14 @@
       <c r="AH167">
         <v>55</v>
       </c>
-    </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ167">
+        <v>3</v>
+      </c>
+      <c r="AK167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18</v>
       </c>
@@ -62187,7 +65326,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>19</v>
       </c>
@@ -62275,8 +65414,14 @@
       <c r="AH169">
         <v>60</v>
       </c>
-    </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ169">
+        <v>4</v>
+      </c>
+      <c r="AK169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>20</v>
       </c>
@@ -62364,8 +65509,14 @@
       <c r="AH170">
         <v>25</v>
       </c>
-    </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ170">
+        <v>1</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>21</v>
       </c>
@@ -62453,8 +65604,14 @@
       <c r="AH171">
         <v>65</v>
       </c>
-    </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ171">
+        <v>7</v>
+      </c>
+      <c r="AK171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>22</v>
       </c>
@@ -62542,8 +65699,14 @@
       <c r="AH172">
         <v>80</v>
       </c>
-    </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>23</v>
       </c>
@@ -62631,8 +65794,14 @@
       <c r="AH173">
         <v>50</v>
       </c>
-    </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ173">
+        <v>3</v>
+      </c>
+      <c r="AK173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -62720,8 +65889,14 @@
       <c r="AH174">
         <v>65</v>
       </c>
-    </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ174">
+        <v>3</v>
+      </c>
+      <c r="AK174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>25</v>
       </c>
@@ -62809,8 +65984,14 @@
       <c r="AH175">
         <v>60</v>
       </c>
-    </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ175">
+        <v>6</v>
+      </c>
+      <c r="AK175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -62898,8 +66079,14 @@
       <c r="AH176">
         <v>75</v>
       </c>
-    </row>
-    <row r="177" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ176">
+        <v>8</v>
+      </c>
+      <c r="AK176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>27</v>
       </c>
@@ -62987,8 +66174,14 @@
       <c r="AH177" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ177" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK177" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>311</v>
       </c>
@@ -63081,7 +66274,7 @@
         <v>57.884615384615387</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>318</v>
       </c>
@@ -63154,12 +66347,12 @@
         <v>19.348027130592765</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f>A28</f>
         <v>Average</v>
@@ -63253,7 +66446,7 @@
         <v>57.692307692307693</v>
       </c>
     </row>
-    <row r="187" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="str">
         <f>A58</f>
         <v>Average</v>
@@ -63347,7 +66540,7 @@
         <v>45.769230769230766</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D188">
         <f t="shared" ref="D188:P188" si="28">D186-D187</f>
         <v>-0.11110853569348844</v>
@@ -63429,7 +66622,7 @@
         <v>11.923076923076927</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f>A88</f>
         <v>Average</v>
@@ -63523,7 +66716,7 @@
         <v>65.961538461538467</v>
       </c>
     </row>
-    <row r="191" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="str">
         <f>A118</f>
         <v>Average</v>
@@ -63617,7 +66810,7 @@
         <v>59.42307692307692</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D192">
         <f t="shared" ref="D192:P192" si="34">D190-D191</f>
         <v>-0.17173852191055639</v>
@@ -64783,6 +67976,18 @@
       <c r="A212" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="G212" s="18">
+        <f>G215/26</f>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="H212" s="18">
+        <f>H215/26</f>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="I212" s="8">
+        <f>I215/26</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
     </row>
     <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
@@ -64997,11 +68202,11 @@
         <f t="shared" si="64"/>
         <v>0.98016054173324207</v>
       </c>
-      <c r="G215" s="1">
+      <c r="G215" s="13">
         <f t="shared" si="64"/>
         <v>23</v>
       </c>
-      <c r="H215" s="1">
+      <c r="H215" s="13">
         <f t="shared" si="64"/>
         <v>23</v>
       </c>
@@ -65064,6 +68269,26 @@
       <c r="AH215" s="6">
         <f t="shared" si="65"/>
         <v>71.34615384615384</v>
+      </c>
+    </row>
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G216" s="18">
+        <f t="shared" ref="G216:I217" si="66">G219/26</f>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G217" s="18">
+        <f t="shared" si="66"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="H217" s="18">
+        <f t="shared" si="66"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="I217" s="8">
+        <f t="shared" si="66"/>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.25">
@@ -65072,91 +68297,91 @@
         <v>Average</v>
       </c>
       <c r="B218">
-        <f t="shared" ref="B218:P218" si="66">B187</f>
+        <f t="shared" ref="B218:P218" si="67">B187</f>
         <v>2</v>
       </c>
       <c r="C218">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="D218">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.74010079193664502</v>
       </c>
       <c r="E218">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.81136543014996065</v>
       </c>
-      <c r="F218">
-        <f t="shared" si="66"/>
+      <c r="F218" s="11">
+        <f t="shared" si="67"/>
         <v>0.5834279228149829</v>
       </c>
       <c r="G218">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H218">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I218">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="J218" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>246.65384615384616</v>
       </c>
       <c r="K218" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.7692307692307692</v>
       </c>
       <c r="L218" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>26.423076923076923</v>
       </c>
       <c r="M218" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16.935897435897438</v>
       </c>
       <c r="N218" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.53287307692307684</v>
       </c>
       <c r="O218" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>10.443461538461539</v>
       </c>
       <c r="P218" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>65.801282051282058</v>
       </c>
       <c r="AB218" s="12">
-        <f t="shared" ref="AB218:AH218" si="67">AB187</f>
+        <f t="shared" ref="AB218:AH218" si="68">AB187</f>
         <v>77.692307692307693</v>
       </c>
       <c r="AC218" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>60</v>
       </c>
-      <c r="AD218" s="12">
-        <f t="shared" si="67"/>
+      <c r="AD218" s="11">
+        <f t="shared" si="68"/>
         <v>67.5</v>
       </c>
       <c r="AE218" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>54.230769230769234</v>
       </c>
       <c r="AF218" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>76.15384615384616</v>
       </c>
       <c r="AG218" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>59.230769230769234</v>
       </c>
       <c r="AH218" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>45.769230769230766</v>
       </c>
     </row>
@@ -65166,91 +68391,91 @@
         <v>Average</v>
       </c>
       <c r="B219">
-        <f t="shared" ref="B219:P219" si="68">B191</f>
+        <f t="shared" ref="B219:P219" si="69">B191</f>
         <v>2</v>
       </c>
       <c r="C219">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.92595669269535352</v>
       </c>
       <c r="E219">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.87912087912087911</v>
       </c>
-      <c r="F219">
-        <f t="shared" si="68"/>
+      <c r="F219" s="11">
+        <f t="shared" si="69"/>
         <v>0.72993975377630305</v>
       </c>
-      <c r="G219">
-        <f t="shared" si="68"/>
+      <c r="G219" s="11">
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="H219">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I219">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J219" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>255.23076923076923</v>
       </c>
       <c r="K219" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2.9615384615384617</v>
       </c>
       <c r="L219" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>91.42307692307692</v>
       </c>
       <c r="M219" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>51.289447731755416</v>
       </c>
       <c r="N219" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.5583307692307693</v>
       </c>
       <c r="O219" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>11.000384615384615</v>
       </c>
       <c r="P219" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>53.237179487179496</v>
       </c>
       <c r="AB219" s="11">
-        <f t="shared" ref="AB219:AH219" si="69">AB191</f>
+        <f t="shared" ref="AB219:AH219" si="70">AB191</f>
         <v>66.92307692307692</v>
       </c>
       <c r="AC219" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>40.769230769230766</v>
       </c>
       <c r="AD219" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>58.07692307692308</v>
       </c>
       <c r="AE219" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>40.57692307692308</v>
       </c>
       <c r="AF219" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>62.5</v>
       </c>
       <c r="AG219" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>50.57692307692308</v>
       </c>
       <c r="AH219" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>59.42307692307692</v>
       </c>
     </row>
@@ -65260,91 +68485,91 @@
         <v>Average</v>
       </c>
       <c r="B220" s="1">
-        <f t="shared" ref="B220:P220" si="70">B195</f>
+        <f t="shared" ref="B220:P220" si="71">B195</f>
         <v>2</v>
       </c>
       <c r="C220" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="D220" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1.1566151630946444</v>
       </c>
       <c r="E220" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.91176984196280442</v>
       </c>
-      <c r="F220" s="1">
-        <f t="shared" si="70"/>
+      <c r="F220" s="13">
+        <f t="shared" si="71"/>
         <v>0.91176984196280442</v>
       </c>
-      <c r="G220" s="1">
-        <f t="shared" si="70"/>
+      <c r="G220" s="13">
+        <f t="shared" si="71"/>
         <v>24</v>
       </c>
-      <c r="H220" s="1">
-        <f t="shared" si="70"/>
+      <c r="H220" s="13">
+        <f t="shared" si="71"/>
         <v>7</v>
       </c>
       <c r="I220" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="J220" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>249.53846153846155</v>
       </c>
       <c r="K220" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3.2692307692307692</v>
       </c>
       <c r="L220" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>74.42307692307692</v>
       </c>
       <c r="M220" s="13">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>32.384615384615387</v>
       </c>
       <c r="N220" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.55581923076923068</v>
       </c>
       <c r="O220" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>10.876153846153844</v>
       </c>
       <c r="P220" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>55.480769230769241</v>
       </c>
       <c r="AB220" s="14">
-        <f t="shared" ref="AB220:AH220" si="71">AB195</f>
+        <f t="shared" ref="AB220:AH220" si="72">AB195</f>
         <v>71.15384615384616</v>
       </c>
       <c r="AC220" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>37.5</v>
       </c>
       <c r="AD220" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>58.846153846153847</v>
       </c>
       <c r="AE220" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>42.115384615384613</v>
       </c>
       <c r="AF220" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>67.307692307692307</v>
       </c>
       <c r="AG220" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>55.96153846153846</v>
       </c>
       <c r="AH220" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>57.884615384615387</v>
       </c>
     </row>
@@ -65354,91 +68579,91 @@
         <v>StDev</v>
       </c>
       <c r="B223">
-        <f t="shared" ref="B223:P223" si="72">B198</f>
+        <f t="shared" ref="B223:P223" si="73">B198</f>
         <v>0</v>
       </c>
       <c r="C223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="D223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8.7744280224626603E-2</v>
       </c>
       <c r="E223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.11276986951505041</v>
       </c>
       <c r="F223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8.4345021099535858E-2</v>
       </c>
       <c r="G223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="H223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="I223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="J223" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>67.241939751456158</v>
       </c>
       <c r="K223" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.72430337885128249</v>
       </c>
       <c r="L223" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8.6362384974371444</v>
       </c>
       <c r="M223" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4.1242507737096288</v>
       </c>
       <c r="N223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.26442761394261477</v>
       </c>
       <c r="O223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.66830442910828</v>
       </c>
       <c r="P223">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>16.102005236912927</v>
       </c>
       <c r="AB223">
-        <f t="shared" ref="AB223:AH223" si="73">AB198</f>
+        <f t="shared" ref="AB223:AH223" si="74">AB198</f>
         <v>21.894853627841762</v>
       </c>
       <c r="AC223">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>22.780727347069906</v>
       </c>
       <c r="AD223">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>24.741742989406511</v>
       </c>
       <c r="AE223">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>20.69931251180914</v>
       </c>
       <c r="AF223">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>22.056745000112777</v>
       </c>
       <c r="AG223">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>28.178688073408622</v>
       </c>
       <c r="AH223">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>20.699312511809147</v>
       </c>
     </row>
@@ -65448,91 +68673,91 @@
         <v>StDev</v>
       </c>
       <c r="B224">
-        <f t="shared" ref="B224:P224" si="74">B202</f>
+        <f t="shared" ref="B224:P224" si="75">B202</f>
         <v>0</v>
       </c>
       <c r="C224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="D224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5.3314069659345403E-2</v>
       </c>
       <c r="E224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>6.7245152538101469E-2</v>
       </c>
       <c r="F224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5.1248654827504625E-2</v>
       </c>
       <c r="G224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J224" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>87.784745476999248</v>
       </c>
       <c r="K224" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.3429604567485707</v>
       </c>
       <c r="L224" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>47.705780975281584</v>
       </c>
       <c r="M224" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7.1469613356119748</v>
       </c>
       <c r="N224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.27456709671772389</v>
       </c>
       <c r="O224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5.2187200906558839</v>
       </c>
       <c r="P224">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>16.098123264827247</v>
       </c>
       <c r="AB224">
-        <f t="shared" ref="AB224:AH224" si="75">AB202</f>
+        <f t="shared" ref="AB224:AH224" si="76">AB202</f>
         <v>24.09596199813123</v>
       </c>
       <c r="AC224">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>19.232384547544157</v>
       </c>
       <c r="AD224">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>25.108993178969531</v>
       </c>
       <c r="AE224">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>18.602109061567766</v>
       </c>
       <c r="AF224">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>23.247828682729462</v>
       </c>
       <c r="AG224">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>23.504500387405354</v>
       </c>
       <c r="AH224">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>18.602109061567756</v>
       </c>
     </row>
@@ -65542,91 +68767,91 @@
         <v>StDev</v>
       </c>
       <c r="B225" s="1">
-        <f t="shared" ref="B225:P225" si="76">B206</f>
+        <f t="shared" ref="B225:P225" si="77">B206</f>
         <v>0</v>
       </c>
       <c r="C225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="D225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.3108034125144058E-2</v>
       </c>
       <c r="E225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.2600222054684314E-2</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.2600222054684314E-2</v>
       </c>
       <c r="G225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="H225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="I225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J225" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>81.531843708219554</v>
       </c>
       <c r="K225" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2.261721604306024</v>
       </c>
       <c r="L225" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>33.195574311136021</v>
       </c>
       <c r="M225" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>9.3837164909367328</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.23635358352720981</v>
       </c>
       <c r="O225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4.7563633813434221</v>
       </c>
       <c r="P225" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>18.557372345676225</v>
       </c>
       <c r="AB225" s="1">
-        <f t="shared" ref="AB225:AH225" si="77">AB206</f>
+        <f t="shared" ref="AB225:AH225" si="78">AB206</f>
         <v>24.788334725461869</v>
       </c>
       <c r="AC225" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>22.770595073471402</v>
       </c>
       <c r="AD225" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>27.174648819470299</v>
       </c>
       <c r="AE225" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>18.196576178374457</v>
       </c>
       <c r="AF225" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>25.407448938027237</v>
       </c>
       <c r="AG225" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>26.182789414775147</v>
       </c>
       <c r="AH225" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>18.196576178374464</v>
       </c>
     </row>
@@ -65636,91 +68861,91 @@
         <v>StDev</v>
       </c>
       <c r="B228">
-        <f t="shared" ref="B228:P228" si="78">B199</f>
+        <f t="shared" ref="B228:P228" si="79">B199</f>
         <v>0</v>
       </c>
       <c r="C228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="D228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.11844730843640698</v>
       </c>
       <c r="E228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.12985265305301377</v>
       </c>
       <c r="F228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>9.3373048477962559E-2</v>
       </c>
       <c r="G228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="H228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>61.71608691917676</v>
       </c>
       <c r="K228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.8152394645841089</v>
       </c>
       <c r="L228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19.720391632871952</v>
       </c>
       <c r="M228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14.28488532393413</v>
       </c>
       <c r="N228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.30929108303692487</v>
       </c>
       <c r="O228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4.3048623135312356</v>
       </c>
       <c r="P228">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>13.778971033246327</v>
       </c>
       <c r="AB228">
-        <f t="shared" ref="AB228:AH228" si="79">AB199</f>
+        <f t="shared" ref="AB228:AH228" si="80">AB199</f>
         <v>16.865987621883836</v>
       </c>
       <c r="AC228">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>27.856776554368238</v>
       </c>
       <c r="AD228">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>21.874642854227357</v>
       </c>
       <c r="AE228">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>23.224655334032743</v>
       </c>
       <c r="AF228">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>17.280491446003062</v>
       </c>
       <c r="AG228">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>21.894853627841762</v>
       </c>
       <c r="AH228">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>23.22465533403274</v>
       </c>
     </row>
@@ -65730,91 +68955,91 @@
         <v>StDev</v>
       </c>
       <c r="B229">
-        <f t="shared" ref="B229:P229" si="80">B203</f>
+        <f t="shared" ref="B229:P229" si="81">B203</f>
         <v>0</v>
       </c>
       <c r="C229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="D229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.16183033037982006</v>
       </c>
       <c r="E229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.15364479077072393</v>
       </c>
       <c r="F229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.12757226384652184</v>
       </c>
       <c r="G229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>71.361226274389509</v>
       </c>
       <c r="K229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>3.1935030199549739</v>
       </c>
       <c r="L229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>39.379358122674454</v>
       </c>
       <c r="M229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>34.803857450002454</v>
       </c>
       <c r="N229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.29769754821863181</v>
       </c>
       <c r="O229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5.0150250095242672</v>
       </c>
       <c r="P229">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>15.651281316160832</v>
       </c>
       <c r="AB229">
-        <f t="shared" ref="AB229:AH229" si="81">AB203</f>
+        <f t="shared" ref="AB229:AH229" si="82">AB203</f>
         <v>23.497954084427143</v>
       </c>
       <c r="AC229">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>22.921269933941606</v>
       </c>
       <c r="AD229">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>23.36993466302048</v>
       </c>
       <c r="AE229">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>21.602172255443346</v>
       </c>
       <c r="AF229">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>20.554804791094465</v>
       </c>
       <c r="AG229">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>22.285731896301865</v>
       </c>
       <c r="AH229">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>21.602172255443346</v>
       </c>
     </row>
@@ -65824,93 +69049,429 @@
         <v>StDev</v>
       </c>
       <c r="B230" s="1">
-        <f t="shared" ref="B230:P230" si="82">B207</f>
+        <f t="shared" ref="B230:P230" si="83">B207</f>
         <v>0</v>
       </c>
       <c r="C230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="D230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>8.3676816885565733E-2</v>
       </c>
       <c r="E230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>6.5963166091969797E-2</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>6.5963166091969797E-2</v>
       </c>
       <c r="G230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="H230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="I230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="J230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>62.416171474534231</v>
       </c>
       <c r="K230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2.2549091743605518</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>26.87329243233598</v>
       </c>
       <c r="M230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>24.081956326528374</v>
       </c>
       <c r="N230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.28491542888265059</v>
       </c>
       <c r="O230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3.4799897435746283</v>
       </c>
       <c r="P230" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>13.966573342812834</v>
       </c>
       <c r="AB230" s="1">
-        <f t="shared" ref="AB230:AH230" si="83">AB207</f>
+        <f t="shared" ref="AB230:AH230" si="84">AB207</f>
         <v>20.606197723388586</v>
       </c>
       <c r="AC230" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>22.638462845343543</v>
       </c>
       <c r="AD230" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>23.971136489857638</v>
       </c>
       <c r="AE230" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>19.348027130592765</v>
       </c>
       <c r="AF230" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>17.563073149695036</v>
       </c>
       <c r="AG230" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>27.01922392553978</v>
       </c>
       <c r="AH230" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>19.348027130592765</v>
       </c>
+    </row>
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+    </row>
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+    </row>
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+    </row>
+    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238" s="12"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+    </row>
+    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B247" s="12"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="11"/>
+      <c r="B253" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="12"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B262" s="11"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="11"/>
+      <c r="B264" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="12"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="11"/>
+      <c r="B267" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="11"/>
+      <c r="B268" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:AH157">

--- a/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
+++ b/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="369">
   <si>
     <t>subject</t>
   </si>
@@ -1125,6 +1125,12 @@
   <si>
     <t>Raw NASA TLX no significant difference for manual and pattern. But significant for sliding autonomy.</t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
@@ -1154,7 +1160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1222,6 +1234,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,12 +1906,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cone"/>
-        <c:axId val="558794752"/>
-        <c:axId val="551960576"/>
-        <c:axId val="73013760"/>
+        <c:axId val="76038144"/>
+        <c:axId val="2298944"/>
+        <c:axId val="40714880"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="558794752"/>
+        <c:axId val="76038144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551960576"/>
+        <c:crossAx val="2298944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1949,7 +1972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="551960576"/>
+        <c:axId val="2298944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,12 +1983,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558794752"/>
+        <c:crossAx val="76038144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="73013760"/>
+        <c:axId val="40714880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551960576"/>
+        <c:crossAx val="2298944"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2351,10 +2374,10 @@
   <dimension ref="A1:AH157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="X117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="X157" sqref="X157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20761,8 +20784,8 @@
   <dimension ref="A1:AH188"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L183" sqref="L183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35123,68 +35146,76 @@
         <f t="shared" si="8"/>
         <v>0.91328167170365615</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="5">
         <f t="shared" si="8"/>
         <v>0.76992822541783978</v>
       </c>
+      <c r="G170">
+        <f t="shared" ref="G170:I170" si="9">G80</f>
+        <v>23</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
       <c r="I170">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="J170">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J170" s="27">
         <f t="shared" si="8"/>
         <v>224.01282051282053</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="27">
         <f t="shared" si="8"/>
         <v>3.0769230769230771</v>
       </c>
-      <c r="L170">
+      <c r="L170" s="27">
         <f t="shared" si="8"/>
         <v>46.641025641025642</v>
       </c>
-      <c r="M170">
+      <c r="M170" s="27">
         <f t="shared" si="8"/>
         <v>15.950905575905576</v>
       </c>
-      <c r="N170">
+      <c r="N170" s="27">
         <f t="shared" si="8"/>
         <v>0.54879743589743568</v>
       </c>
-      <c r="O170">
+      <c r="O170" s="27">
         <f t="shared" si="8"/>
         <v>10.879615384615386</v>
       </c>
-      <c r="P170">
+      <c r="P170" s="27">
         <f t="shared" si="8"/>
         <v>48.194444444444443</v>
       </c>
       <c r="AB170">
-        <f t="shared" ref="AB170:AH170" si="9">AB80</f>
+        <f t="shared" ref="AB170:AH170" si="10">AB80</f>
         <v>61.025641025641029</v>
       </c>
       <c r="AC170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.320512820512818</v>
       </c>
       <c r="AD170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51.025641025641029</v>
       </c>
       <c r="AE170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="AF170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59.42307692307692</v>
       </c>
       <c r="AG170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.371794871794869</v>
       </c>
       <c r="AH170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
     </row>
@@ -35194,127 +35225,134 @@
         <v>Average</v>
       </c>
       <c r="B171" s="1">
-        <f t="shared" ref="B171:P171" si="10">B162</f>
+        <f t="shared" ref="B171:P171" si="11">B162</f>
         <v>2</v>
       </c>
       <c r="C171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94089088257554809</v>
       </c>
       <c r="E171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86741871707788132</v>
       </c>
-      <c r="F171" s="1">
-        <f t="shared" si="10"/>
+      <c r="F171" s="26">
+        <f t="shared" si="11"/>
         <v>0.74171250618469697</v>
       </c>
-      <c r="H171" s="15"/>
+      <c r="G171" s="1">
+        <f t="shared" ref="G171:I171" si="12">G162</f>
+        <v>29</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
       <c r="I171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J171" s="1">
-        <f t="shared" si="10"/>
+      <c r="J171" s="28">
+        <f t="shared" si="11"/>
         <v>250.47435897435898</v>
       </c>
-      <c r="K171" s="1">
-        <f t="shared" si="10"/>
+      <c r="K171" s="28">
+        <f t="shared" si="11"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="L171" s="1">
-        <f t="shared" si="10"/>
+      <c r="L171" s="28">
+        <f t="shared" si="11"/>
         <v>64.089743589743591</v>
       </c>
-      <c r="M171" s="1">
-        <f t="shared" si="10"/>
+      <c r="M171" s="28">
+        <f t="shared" si="11"/>
         <v>33.536653517422749</v>
       </c>
-      <c r="N171" s="1">
-        <f t="shared" si="10"/>
+      <c r="N171" s="28">
+        <f t="shared" si="11"/>
         <v>0.54900769230769242</v>
       </c>
-      <c r="O171" s="1">
-        <f t="shared" si="10"/>
+      <c r="O171" s="28">
+        <f t="shared" si="11"/>
         <v>10.77333333333333</v>
       </c>
-      <c r="P171" s="1">
-        <f t="shared" si="10"/>
+      <c r="P171" s="28">
+        <f t="shared" si="11"/>
         <v>58.17307692307692</v>
       </c>
       <c r="AB171" s="1">
-        <f t="shared" ref="AB171:AH171" si="11">AB162</f>
+        <f t="shared" ref="AB171:AH171" si="13">AB162</f>
         <v>71.92307692307692</v>
       </c>
       <c r="AC171" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46.089743589743591</v>
       </c>
       <c r="AD171" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>61.474358974358971</v>
       </c>
       <c r="AE171" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45.641025641025642</v>
       </c>
       <c r="AF171" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>68.65384615384616</v>
       </c>
       <c r="AG171" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>55.256410256410255</v>
       </c>
       <c r="AH171" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54.358974358974358</v>
       </c>
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="D172">
-        <f t="shared" ref="D172:P172" si="12">D170-D171</f>
+        <f t="shared" ref="D172:P172" si="14">D170-D171</f>
         <v>-0.13993313683989139</v>
       </c>
       <c r="E172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.5862954625774832E-2</v>
       </c>
       <c r="F172" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.8215719233142811E-2</v>
       </c>
       <c r="G172">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-6</v>
       </c>
       <c r="H172">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="I172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="J172" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-26.461538461538453</v>
       </c>
       <c r="K172" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.41025641025641058</v>
       </c>
       <c r="L172" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-17.448717948717949</v>
       </c>
       <c r="M172" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-17.585747941517173</v>
       </c>
       <c r="N172" s="12">
@@ -35322,39 +35360,39 @@
         <v>-2.1025641025673725E-4</v>
       </c>
       <c r="O172" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10628205128205614</v>
       </c>
       <c r="P172" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-9.9786324786324769</v>
       </c>
       <c r="AB172" s="11">
-        <f t="shared" ref="AB172:AH172" si="13">AB170-AB171</f>
+        <f t="shared" ref="AB172:AH172" si="15">AB170-AB171</f>
         <v>-10.897435897435891</v>
       </c>
       <c r="AC172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-5.7692307692307736</v>
       </c>
       <c r="AD172" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-10.448717948717942</v>
       </c>
       <c r="AE172" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-10.641025641025642</v>
       </c>
       <c r="AF172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-9.2307692307692406</v>
       </c>
       <c r="AG172" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-12.884615384615387</v>
       </c>
       <c r="AH172" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10.641025641025642</v>
       </c>
     </row>
@@ -35363,189 +35401,189 @@
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="str">
-        <f t="shared" ref="A174:P174" si="14">A81</f>
+        <f t="shared" ref="A174:P174" si="16">A81</f>
         <v>StDev</v>
       </c>
       <c r="B174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.17421944370218517</v>
       </c>
       <c r="E174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1065931981101028</v>
       </c>
       <c r="F174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16747009169591712</v>
       </c>
       <c r="G174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>79.440166749825565</v>
       </c>
       <c r="K174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.5470595767497248</v>
       </c>
       <c r="L174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>40.852911437991452</v>
       </c>
       <c r="M174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6506370482349855</v>
       </c>
       <c r="N174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.25639758289192327</v>
       </c>
       <c r="O174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.5525897987984631</v>
       </c>
       <c r="P174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.96431882487483</v>
       </c>
       <c r="AB174">
-        <f t="shared" ref="AB174:AH174" si="15">AB81</f>
+        <f t="shared" ref="AB174:AH174" si="17">AB81</f>
         <v>23.470885174668009</v>
       </c>
       <c r="AC174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23.854806256848565</v>
       </c>
       <c r="AD174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26.839578431170828</v>
       </c>
       <c r="AE174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.771421064483224</v>
       </c>
       <c r="AF174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24.053252192976746</v>
       </c>
       <c r="AG174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26.404992136404996</v>
       </c>
       <c r="AH174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.771421064483224</v>
       </c>
     </row>
     <row r="175" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="str">
-        <f t="shared" ref="A175:P175" si="16">A163</f>
+        <f t="shared" ref="A175:P175" si="18">A163</f>
         <v>StDev</v>
       </c>
       <c r="B175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="C175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.21150385489078113</v>
       </c>
       <c r="E175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.12776213658928262</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.16673033736849849</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>64.558183635067351</v>
       </c>
       <c r="K175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.3667977526040542</v>
       </c>
       <c r="L175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>40.393257087232001</v>
       </c>
       <c r="M175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>29.116113377299254</v>
       </c>
       <c r="N175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.29380563535887333</v>
       </c>
       <c r="O175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.2628880724943823</v>
       </c>
       <c r="P175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>15.32421247426727</v>
       </c>
       <c r="AB175" s="1">
-        <f t="shared" ref="AB175:AH175" si="17">AB163</f>
+        <f t="shared" ref="AB175:AH175" si="19">AB163</f>
         <v>20.721260322929904</v>
       </c>
       <c r="AC175" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>26.24370593555912</v>
       </c>
       <c r="AD175" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23.189072862732132</v>
       </c>
       <c r="AE175" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22.044214341803745</v>
       </c>
       <c r="AF175" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.148650844663429</v>
       </c>
       <c r="AG175" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23.807908703128813</v>
       </c>
       <c r="AH175" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22.044214341803745</v>
       </c>
     </row>
@@ -35555,88 +35593,110 @@
         <v>-3.7284411188595962E-2</v>
       </c>
       <c r="E176">
-        <f t="shared" ref="E176:P176" si="18">E174-E175</f>
+        <f t="shared" ref="E176:P176" si="20">E174-E175</f>
         <v>-2.1168938479179819E-2</v>
       </c>
       <c r="F176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.3975432741862912E-4</v>
       </c>
       <c r="G176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J176" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14.881983114758214</v>
       </c>
       <c r="K176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.1802618241456706</v>
       </c>
       <c r="L176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.45965435075945038</v>
       </c>
       <c r="M176" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-20.465476329064266</v>
       </c>
       <c r="N176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-3.7408052466950059E-2</v>
       </c>
       <c r="O176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.28970172630408086</v>
       </c>
       <c r="P176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.6401063506075602</v>
       </c>
       <c r="AB176">
-        <f t="shared" ref="AB176:AH176" si="19">AB174-AB175</f>
+        <f t="shared" ref="AB176:AH176" si="21">AB174-AB175</f>
         <v>2.7496248517381048</v>
       </c>
       <c r="AC176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-2.3888996787105548</v>
       </c>
       <c r="AD176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.650505568438696</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-2.2727932773205204</v>
       </c>
       <c r="AF176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9046013483133173</v>
       </c>
       <c r="AG176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.5970834332761825</v>
       </c>
       <c r="AH176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-2.2727932773205204</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G178" s="5">
+        <v>0.9612594790636334</v>
+      </c>
+      <c r="H178" s="5">
+        <v>0.96356742499175729</v>
+      </c>
+      <c r="I178" s="5">
+        <v>0.9947246950214309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G179" s="5">
+        <v>0.78830874006810447</v>
+      </c>
+      <c r="H179" s="5">
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I179" s="5">
+        <v>0.9858115777525539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>330</v>
       </c>
@@ -35648,7 +35708,7 @@
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>332</v>
       </c>
@@ -35660,7 +35720,7 @@
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>333</v>
       </c>
@@ -35672,7 +35732,7 @@
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>331</v>
       </c>
@@ -35684,7 +35744,7 @@
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11" t="s">
         <v>345</v>
@@ -35696,7 +35756,7 @@
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>334</v>
       </c>
@@ -35708,7 +35768,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>335</v>
       </c>
@@ -35720,7 +35780,7 @@
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11" t="s">
         <v>336</v>
@@ -35748,8 +35808,8 @@
   <dimension ref="A1:AH196"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A185" sqref="A185:L196"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J173" sqref="J173:P175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35763,13 +35823,12 @@
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" hidden="1" customWidth="1"/>
@@ -50244,29 +50303,29 @@
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G170" s="5">
-        <f>G173/2/26</f>
+        <f t="shared" ref="G170:I172" si="12">G173/2/26</f>
         <v>0</v>
       </c>
       <c r="H170" s="5">
-        <f>H173/2/26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I170" s="5">
-        <f>I173/2/26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G171" s="7">
-        <f>G174/2/26</f>
+        <f t="shared" si="12"/>
         <v>9.6153846153846159E-2</v>
       </c>
       <c r="H171" s="5">
-        <f>H174/2/26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I171" s="5">
-        <f>I174/2/26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -50275,15 +50334,15 @@
         <v>319</v>
       </c>
       <c r="G172" s="7">
-        <f>G175/2/26</f>
+        <f t="shared" si="12"/>
         <v>0.90384615384615385</v>
       </c>
       <c r="H172" s="7">
-        <f>H175/2/26</f>
+        <f t="shared" si="12"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="I172" s="7">
-        <f>I175/2/26</f>
+        <f t="shared" si="12"/>
         <v>0.11538461538461539</v>
       </c>
     </row>
@@ -50293,91 +50352,91 @@
         <v>Average</v>
       </c>
       <c r="B173">
-        <f t="shared" ref="B173:P173" si="12">B54</f>
+        <f t="shared" ref="B173:P173" si="13">B54</f>
         <v>0</v>
       </c>
       <c r="C173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.68454652408990091</v>
       </c>
       <c r="E173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.80987643847743196</v>
       </c>
-      <c r="F173" s="11">
-        <f t="shared" si="12"/>
+      <c r="F173" s="18">
+        <f t="shared" si="13"/>
         <v>0.59402634569316948</v>
       </c>
       <c r="G173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I173">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="22">
+        <f t="shared" si="13"/>
         <v>243.34615384615384</v>
       </c>
-      <c r="K173" s="11">
-        <f t="shared" si="12"/>
+      <c r="K173" s="23">
+        <f t="shared" si="13"/>
         <v>1.75</v>
       </c>
-      <c r="L173" s="11">
-        <f t="shared" si="12"/>
+      <c r="L173" s="23">
+        <f t="shared" si="13"/>
         <v>20.826923076923077</v>
       </c>
-      <c r="M173" s="11">
-        <f t="shared" si="12"/>
+      <c r="M173" s="23">
+        <f t="shared" si="13"/>
         <v>13.009615384615383</v>
       </c>
-      <c r="N173" s="12">
-        <f t="shared" si="12"/>
+      <c r="N173" s="22">
+        <f t="shared" si="13"/>
         <v>0.52937115384615396</v>
       </c>
-      <c r="O173" s="12">
-        <f t="shared" si="12"/>
+      <c r="O173" s="22">
+        <f t="shared" si="13"/>
         <v>10.394615384615381</v>
       </c>
-      <c r="P173" s="11">
-        <f t="shared" si="12"/>
+      <c r="P173" s="23">
+        <f t="shared" si="13"/>
         <v>61.506410256410263</v>
       </c>
       <c r="AB173">
-        <f t="shared" ref="AB173:AH173" si="13">AB54</f>
+        <f t="shared" ref="AB173:AH173" si="14">AB54</f>
         <v>70.961538461538467</v>
       </c>
       <c r="AC173" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>57.596153846153847</v>
       </c>
       <c r="AD173" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>65.288461538461533</v>
       </c>
       <c r="AE173" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.269230769230766</v>
       </c>
       <c r="AF173" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>71.82692307692308</v>
       </c>
       <c r="AG173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55.096153846153847</v>
       </c>
       <c r="AH173" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.730769230769234</v>
       </c>
     </row>
@@ -50387,91 +50446,91 @@
         <v>Average</v>
       </c>
       <c r="B174">
-        <f t="shared" ref="B174:P174" si="14">B110</f>
+        <f t="shared" ref="B174:P174" si="15">B110</f>
         <v>0</v>
       </c>
       <c r="C174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.84008743174007527</v>
       </c>
       <c r="E174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.91520895284685011</v>
       </c>
-      <c r="F174" s="11">
-        <f t="shared" si="14"/>
+      <c r="F174" s="18">
+        <f t="shared" si="15"/>
         <v>0.72746955986261219</v>
       </c>
       <c r="G174" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="H174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I174">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="22">
+        <f t="shared" si="15"/>
         <v>240.01923076923077</v>
       </c>
-      <c r="K174" s="12">
-        <f t="shared" si="14"/>
+      <c r="K174" s="22">
+        <f t="shared" si="15"/>
         <v>3.5576923076923075</v>
       </c>
-      <c r="L174" s="11">
-        <f t="shared" si="14"/>
+      <c r="L174" s="23">
+        <f t="shared" si="15"/>
         <v>81.115384615384613</v>
       </c>
-      <c r="M174" s="11">
-        <f t="shared" si="14"/>
+      <c r="M174" s="23">
+        <f t="shared" si="15"/>
         <v>35.641182962336806</v>
       </c>
-      <c r="N174" s="12">
-        <f t="shared" si="14"/>
+      <c r="N174" s="22">
+        <f t="shared" si="15"/>
         <v>0.56694038461538476</v>
       </c>
-      <c r="O174" s="12">
-        <f t="shared" si="14"/>
+      <c r="O174" s="22">
+        <f t="shared" si="15"/>
         <v>11.169807692307691</v>
       </c>
-      <c r="P174" s="12">
-        <f t="shared" si="14"/>
+      <c r="P174" s="22">
+        <f t="shared" si="15"/>
         <v>49.182692307692299</v>
       </c>
       <c r="AB174">
-        <f t="shared" ref="AB174:AH174" si="15">AB110</f>
+        <f t="shared" ref="AB174:AH174" si="16">AB110</f>
         <v>64.038461538461533</v>
       </c>
       <c r="AC174" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.019230769230766</v>
       </c>
       <c r="AD174" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>52.692307692307693</v>
       </c>
       <c r="AE174" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.307692307692307</v>
       </c>
       <c r="AF174" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59.903846153846153</v>
       </c>
       <c r="AG174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44.134615384615387</v>
       </c>
       <c r="AH174" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>62.692307692307693</v>
       </c>
     </row>
@@ -50481,91 +50540,91 @@
         <v>Average</v>
       </c>
       <c r="B175" s="1">
-        <f t="shared" ref="B175:P175" si="16">B166</f>
+        <f t="shared" ref="B175:P175" si="17">B166</f>
         <v>0</v>
       </c>
       <c r="C175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0881389866368307</v>
       </c>
       <c r="E175" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.94596519184802319</v>
       </c>
-      <c r="F175" s="13">
-        <f t="shared" si="16"/>
+      <c r="F175" s="21">
+        <f t="shared" si="17"/>
         <v>0.94596519184802319</v>
       </c>
       <c r="G175" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="H175" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="I175" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="J175" s="14">
-        <f t="shared" si="16"/>
+      <c r="J175" s="24">
+        <f t="shared" si="17"/>
         <v>228.36538461538461</v>
       </c>
-      <c r="K175" s="14">
-        <f t="shared" si="16"/>
+      <c r="K175" s="24">
+        <f t="shared" si="17"/>
         <v>3.3076923076923075</v>
       </c>
-      <c r="L175" s="13">
-        <f t="shared" si="16"/>
+      <c r="L175" s="25">
+        <f t="shared" si="17"/>
         <v>64.15384615384616</v>
       </c>
-      <c r="M175" s="13">
-        <f t="shared" si="16"/>
+      <c r="M175" s="25">
+        <f t="shared" si="17"/>
         <v>25.58054029304029</v>
       </c>
-      <c r="N175" s="14">
-        <f t="shared" si="16"/>
+      <c r="N175" s="24">
+        <f t="shared" si="17"/>
         <v>0.55039615384615392</v>
       </c>
-      <c r="O175" s="14">
-        <f t="shared" si="16"/>
+      <c r="O175" s="24">
+        <f t="shared" si="17"/>
         <v>10.915000000000003</v>
       </c>
-      <c r="P175" s="14">
-        <f t="shared" si="16"/>
+      <c r="P175" s="24">
+        <f t="shared" si="17"/>
         <v>48.862179487179482</v>
       </c>
       <c r="AB175" s="1">
-        <f t="shared" ref="AB175:AH175" si="17">AB166</f>
+        <f t="shared" ref="AB175:AH175" si="18">AB166</f>
         <v>64.42307692307692</v>
       </c>
       <c r="AC175" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="AD175" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>50.769230769230766</v>
       </c>
       <c r="AE175" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35.384615384615387</v>
       </c>
       <c r="AF175" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>60.384615384615387</v>
       </c>
       <c r="AG175" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>47.21153846153846</v>
       </c>
       <c r="AH175" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>64.615384615384613</v>
       </c>
     </row>
@@ -50575,91 +50634,91 @@
         <v>StDev</v>
       </c>
       <c r="B178">
-        <f t="shared" ref="B178:P178" si="18">B55</f>
+        <f t="shared" ref="B178:P178" si="19">B55</f>
         <v>0</v>
       </c>
       <c r="C178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.11746563759958566</v>
       </c>
       <c r="E178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.1204227979349155</v>
       </c>
       <c r="F178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.87446436570863E-2</v>
       </c>
       <c r="G178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63.989547129041199</v>
       </c>
       <c r="K178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.76376261582597338</v>
       </c>
       <c r="L178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16.097401024968992</v>
       </c>
       <c r="M178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.139314538582502</v>
       </c>
       <c r="N178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.28492211273969986</v>
       </c>
       <c r="O178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.9601730312457057</v>
       </c>
       <c r="P178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.458707438295495</v>
       </c>
       <c r="AB178">
-        <f t="shared" ref="AB178:AH178" si="19">AB55</f>
+        <f t="shared" ref="AB178:AH178" si="20">AB55</f>
         <v>20.509167284040714</v>
       </c>
       <c r="AC178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25.311595122831385</v>
       </c>
       <c r="AD178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23.229744740827044</v>
       </c>
       <c r="AE178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22.59803512594722</v>
       </c>
       <c r="AF178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20.098503655009683</v>
       </c>
       <c r="AG178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25.330954182955768</v>
       </c>
       <c r="AH178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22.598035125947227</v>
       </c>
     </row>
@@ -50669,91 +50728,91 @@
         <v>StDev</v>
       </c>
       <c r="B179">
-        <f t="shared" ref="B179:P179" si="20">B111</f>
+        <f t="shared" ref="B179:P179" si="21">B111</f>
         <v>0</v>
       </c>
       <c r="C179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.14747613334103721</v>
       </c>
       <c r="E179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.12294889406677555</v>
       </c>
       <c r="F179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.6288473311778922E-2</v>
       </c>
       <c r="G179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>80.68298904332508</v>
       </c>
       <c r="K179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.2923765868660269</v>
       </c>
       <c r="L179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>44.543283134477079</v>
       </c>
       <c r="M179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>29.470102709322752</v>
       </c>
       <c r="N179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.28367779102604729</v>
       </c>
       <c r="O179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.0703492127035226</v>
       </c>
       <c r="P179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16.244230067143111</v>
       </c>
       <c r="AB179">
-        <f t="shared" ref="AB179:AH179" si="21">AB111</f>
+        <f t="shared" ref="AB179:AH179" si="22">AB111</f>
         <v>23.743698060469157</v>
       </c>
       <c r="AC179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21.28839358329947</v>
       </c>
       <c r="AD179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.623867316669809</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20.230571373531383</v>
       </c>
       <c r="AF179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21.884061363919372</v>
       </c>
       <c r="AG179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23.592146288878361</v>
       </c>
       <c r="AH179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20.23057137353139</v>
       </c>
     </row>
@@ -50763,92 +50822,114 @@
         <v>StDev</v>
       </c>
       <c r="B180" s="1">
-        <f t="shared" ref="B180:P180" si="22">B167</f>
+        <f t="shared" ref="B180:P180" si="23">B167</f>
         <v>0</v>
       </c>
       <c r="C180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.109013707256243E-2</v>
       </c>
       <c r="E180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.8335131095060958E-2</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.8335131095060958E-2</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75.002229730555669</v>
       </c>
       <c r="K180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2364052172238247</v>
       </c>
       <c r="L180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31.649665992962124</v>
       </c>
       <c r="M180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19.355919022087825</v>
       </c>
       <c r="N180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.25924190986037404</v>
       </c>
       <c r="O180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.1264605257518419</v>
       </c>
       <c r="P180" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17.581144619651138</v>
       </c>
       <c r="AB180" s="1">
-        <f t="shared" ref="AB180:AH180" si="23">AB167</f>
+        <f t="shared" ref="AB180:AH180" si="24">AB167</f>
         <v>23.569959406527186</v>
       </c>
       <c r="AC180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>22.622217085916954</v>
       </c>
       <c r="AD180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26.649221292096197</v>
       </c>
       <c r="AE180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19.799142233503545</v>
       </c>
       <c r="AF180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>22.72698477810183</v>
       </c>
       <c r="AG180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>27.784419769008178</v>
       </c>
       <c r="AH180" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19.799142233503545</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G182" s="5">
+        <v>0.9612594790636334</v>
+      </c>
+      <c r="H182" s="5">
+        <v>0.96356742499175729</v>
+      </c>
+      <c r="I182" s="5">
+        <v>0.9947246950214309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G183" s="5">
+        <v>0.78830874006810447</v>
+      </c>
+      <c r="H183" s="5">
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I183" s="5">
+        <v>0.9858115777525539</v>
       </c>
     </row>
     <row r="185" spans="1:34" x14ac:dyDescent="0.25">
@@ -51047,10 +51128,10 @@
   <dimension ref="A1:AK268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D236" sqref="D236"/>
+      <selection pane="bottomRight" activeCell="L208" sqref="L208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66373,7 +66454,7 @@
         <f t="shared" si="24"/>
         <v>0.80838744680490349</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="5">
         <f t="shared" si="24"/>
         <v>0.60462476857135616</v>
       </c>
@@ -66389,31 +66470,31 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="27">
         <f t="shared" si="24"/>
         <v>240.03846153846155</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="27">
         <f t="shared" si="24"/>
         <v>1.7307692307692308</v>
       </c>
-      <c r="L186">
+      <c r="L186" s="27">
         <f t="shared" si="24"/>
         <v>15.23076923076923</v>
       </c>
-      <c r="M186">
+      <c r="M186" s="27">
         <f t="shared" si="24"/>
         <v>9.0833333333333321</v>
       </c>
-      <c r="N186">
+      <c r="N186" s="27">
         <f t="shared" si="24"/>
         <v>0.52586923076923087</v>
       </c>
-      <c r="O186">
+      <c r="O186" s="27">
         <f t="shared" si="24"/>
         <v>10.345769230769228</v>
       </c>
-      <c r="P186">
+      <c r="P186" s="27">
         <f t="shared" si="24"/>
         <v>57.211538461538467</v>
       </c>
@@ -66467,7 +66548,7 @@
         <f t="shared" si="26"/>
         <v>0.81136543014996065</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="26">
         <f t="shared" si="26"/>
         <v>0.5834279228149829</v>
       </c>
@@ -66483,31 +66564,31 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J187" s="1">
+      <c r="J187" s="28">
         <f t="shared" si="26"/>
         <v>246.65384615384616</v>
       </c>
-      <c r="K187" s="1">
+      <c r="K187" s="28">
         <f t="shared" si="26"/>
         <v>1.7692307692307692</v>
       </c>
-      <c r="L187" s="1">
+      <c r="L187" s="28">
         <f t="shared" si="26"/>
         <v>26.423076923076923</v>
       </c>
-      <c r="M187" s="1">
+      <c r="M187" s="28">
         <f t="shared" si="26"/>
         <v>16.935897435897438</v>
       </c>
-      <c r="N187" s="1">
+      <c r="N187" s="28">
         <f t="shared" si="26"/>
         <v>0.53287307692307684</v>
       </c>
-      <c r="O187" s="1">
+      <c r="O187" s="28">
         <f t="shared" si="26"/>
         <v>10.443461538461539</v>
       </c>
-      <c r="P187" s="1">
+      <c r="P187" s="28">
         <f t="shared" si="26"/>
         <v>65.801282051282058</v>
       </c>
@@ -66549,7 +66630,7 @@
         <f t="shared" si="28"/>
         <v>-2.9779833450571669E-3</v>
       </c>
-      <c r="F188" s="12">
+      <c r="F188" s="29">
         <f t="shared" si="28"/>
         <v>2.1196845756373262E-2</v>
       </c>
@@ -66565,31 +66646,31 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="J188" s="12">
+      <c r="J188" s="22">
         <f t="shared" si="28"/>
         <v>-6.6153846153846132</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="27">
         <f t="shared" si="28"/>
         <v>-3.8461538461538325E-2</v>
       </c>
-      <c r="L188" s="11">
+      <c r="L188" s="23">
         <f t="shared" si="28"/>
         <v>-11.192307692307693</v>
       </c>
-      <c r="M188" s="11">
+      <c r="M188" s="23">
         <f t="shared" si="28"/>
         <v>-7.8525641025641058</v>
       </c>
-      <c r="N188" s="12">
+      <c r="N188" s="22">
         <f t="shared" si="28"/>
         <v>-7.0038461538459718E-3</v>
       </c>
-      <c r="O188" s="12">
+      <c r="O188" s="22">
         <f t="shared" si="28"/>
         <v>-9.7692307692311076E-2</v>
       </c>
-      <c r="P188" s="12">
+      <c r="P188" s="22">
         <f t="shared" si="28"/>
         <v>-8.5897435897435912</v>
       </c>
@@ -66621,6 +66702,16 @@
         <f t="shared" si="29"/>
         <v>11.923076923076927</v>
       </c>
+    </row>
+    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F189" s="5"/>
+      <c r="J189" s="27"/>
+      <c r="K189" s="27"/>
+      <c r="L189" s="27"/>
+      <c r="M189" s="27"/>
+      <c r="N189" s="27"/>
+      <c r="O189" s="27"/>
+      <c r="P189" s="27"/>
     </row>
     <row r="190" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
@@ -66643,7 +66734,7 @@
         <f t="shared" si="30"/>
         <v>0.95129702657282145</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="5">
         <f t="shared" si="30"/>
         <v>0.72499936594892078</v>
       </c>
@@ -66659,31 +66750,31 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="27">
         <f t="shared" si="30"/>
         <v>224.80769230769232</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="27">
         <f t="shared" si="30"/>
         <v>4.1538461538461542</v>
       </c>
-      <c r="L190">
+      <c r="L190" s="27">
         <f t="shared" si="30"/>
         <v>70.807692307692307</v>
       </c>
-      <c r="M190">
+      <c r="M190" s="27">
         <f t="shared" si="30"/>
         <v>19.992918192918196</v>
       </c>
-      <c r="N190">
+      <c r="N190" s="27">
         <f t="shared" si="30"/>
         <v>0.57555000000000012</v>
       </c>
-      <c r="O190">
+      <c r="O190" s="27">
         <f t="shared" si="30"/>
         <v>11.339230769230769</v>
       </c>
-      <c r="P190">
+      <c r="P190" s="27">
         <f t="shared" si="30"/>
         <v>45.128205128205131</v>
       </c>
@@ -66737,7 +66828,7 @@
         <f t="shared" si="32"/>
         <v>0.87912087912087911</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="26">
         <f t="shared" si="32"/>
         <v>0.72993975377630305</v>
       </c>
@@ -66753,31 +66844,31 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J191" s="1">
+      <c r="J191" s="28">
         <f t="shared" si="32"/>
         <v>255.23076923076923</v>
       </c>
-      <c r="K191" s="1">
+      <c r="K191" s="28">
         <f t="shared" si="32"/>
         <v>2.9615384615384617</v>
       </c>
-      <c r="L191" s="1">
+      <c r="L191" s="28">
         <f t="shared" si="32"/>
         <v>91.42307692307692</v>
       </c>
-      <c r="M191" s="1">
+      <c r="M191" s="28">
         <f t="shared" si="32"/>
         <v>51.289447731755416</v>
       </c>
-      <c r="N191" s="1">
+      <c r="N191" s="28">
         <f t="shared" si="32"/>
         <v>0.5583307692307693</v>
       </c>
-      <c r="O191" s="1">
+      <c r="O191" s="28">
         <f t="shared" si="32"/>
         <v>11.000384615384615</v>
       </c>
-      <c r="P191" s="1">
+      <c r="P191" s="28">
         <f t="shared" si="32"/>
         <v>53.237179487179496</v>
       </c>
@@ -66819,7 +66910,7 @@
         <f t="shared" si="34"/>
         <v>7.2176147451942341E-2</v>
       </c>
-      <c r="F192" s="12">
+      <c r="F192" s="29">
         <f t="shared" si="34"/>
         <v>-4.9403878273822643E-3</v>
       </c>
@@ -66835,31 +66926,31 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J192" s="12">
+      <c r="J192" s="22">
         <f t="shared" si="34"/>
         <v>-30.423076923076906</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="27">
         <f t="shared" si="34"/>
         <v>1.1923076923076925</v>
       </c>
-      <c r="L192" s="11">
+      <c r="L192" s="23">
         <f t="shared" si="34"/>
         <v>-20.615384615384613</v>
       </c>
-      <c r="M192" s="11">
+      <c r="M192" s="23">
         <f t="shared" si="34"/>
         <v>-31.29652953883722</v>
       </c>
-      <c r="N192" s="12">
+      <c r="N192" s="22">
         <f t="shared" si="34"/>
         <v>1.721923076923082E-2</v>
       </c>
-      <c r="O192" s="12">
+      <c r="O192" s="22">
         <f t="shared" si="34"/>
         <v>0.3388461538461538</v>
       </c>
-      <c r="P192" s="12">
+      <c r="P192" s="22">
         <f t="shared" si="34"/>
         <v>-8.1089743589743648</v>
       </c>
@@ -66891,6 +66982,16 @@
         <f t="shared" si="35"/>
         <v>6.5384615384615472</v>
       </c>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F193" s="5"/>
+      <c r="J193" s="27"/>
+      <c r="K193" s="27"/>
+      <c r="L193" s="27"/>
+      <c r="M193" s="27"/>
+      <c r="N193" s="27"/>
+      <c r="O193" s="27"/>
+      <c r="P193" s="27"/>
     </row>
     <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
@@ -66913,7 +67014,7 @@
         <f t="shared" si="36"/>
         <v>0.98016054173324207</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="5">
         <f t="shared" si="36"/>
         <v>0.98016054173324207</v>
       </c>
@@ -66929,31 +67030,31 @@
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="27">
         <f t="shared" si="36"/>
         <v>207.19230769230768</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="27">
         <f t="shared" si="36"/>
         <v>3.3461538461538463</v>
       </c>
-      <c r="L194">
+      <c r="L194" s="27">
         <f t="shared" si="36"/>
         <v>53.884615384615387</v>
       </c>
-      <c r="M194">
+      <c r="M194" s="27">
         <f t="shared" si="36"/>
         <v>18.7764652014652</v>
       </c>
-      <c r="N194">
+      <c r="N194" s="27">
         <f t="shared" si="36"/>
         <v>0.54497307692307695</v>
       </c>
-      <c r="O194">
+      <c r="O194" s="27">
         <f t="shared" si="36"/>
         <v>10.953846153846154</v>
       </c>
-      <c r="P194">
+      <c r="P194" s="27">
         <f t="shared" si="36"/>
         <v>42.243589743589737</v>
       </c>
@@ -67007,7 +67108,7 @@
         <f t="shared" si="38"/>
         <v>0.91176984196280442</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="26">
         <f t="shared" si="38"/>
         <v>0.91176984196280442</v>
       </c>
@@ -67023,31 +67124,31 @@
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="J195" s="1">
+      <c r="J195" s="28">
         <f t="shared" si="38"/>
         <v>249.53846153846155</v>
       </c>
-      <c r="K195" s="1">
+      <c r="K195" s="28">
         <f t="shared" si="38"/>
         <v>3.2692307692307692</v>
       </c>
-      <c r="L195" s="1">
+      <c r="L195" s="28">
         <f t="shared" si="38"/>
         <v>74.42307692307692</v>
       </c>
-      <c r="M195" s="1">
+      <c r="M195" s="28">
         <f t="shared" si="38"/>
         <v>32.384615384615387</v>
       </c>
-      <c r="N195" s="1">
+      <c r="N195" s="28">
         <f t="shared" si="38"/>
         <v>0.55581923076923068</v>
       </c>
-      <c r="O195" s="1">
+      <c r="O195" s="28">
         <f t="shared" si="38"/>
         <v>10.876153846153844</v>
       </c>
-      <c r="P195" s="1">
+      <c r="P195" s="28">
         <f t="shared" si="38"/>
         <v>55.480769230769241</v>
       </c>
@@ -67089,7 +67190,7 @@
         <f t="shared" si="40"/>
         <v>6.8390699770437657E-2</v>
       </c>
-      <c r="F196" s="12">
+      <c r="F196" s="29">
         <f t="shared" si="40"/>
         <v>6.8390699770437657E-2</v>
       </c>
@@ -67105,31 +67206,31 @@
         <f t="shared" si="40"/>
         <v>-2</v>
       </c>
-      <c r="J196" s="12">
+      <c r="J196" s="22">
         <f t="shared" si="40"/>
         <v>-42.346153846153868</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="27">
         <f t="shared" si="40"/>
         <v>7.6923076923077094E-2</v>
       </c>
-      <c r="L196" s="11">
+      <c r="L196" s="23">
         <f t="shared" si="40"/>
         <v>-20.538461538461533</v>
       </c>
-      <c r="M196" s="11">
+      <c r="M196" s="23">
         <f t="shared" si="40"/>
         <v>-13.608150183150187</v>
       </c>
-      <c r="N196" s="12">
+      <c r="N196" s="22">
         <f t="shared" si="40"/>
         <v>-1.0846153846153728E-2</v>
       </c>
-      <c r="O196" s="12">
+      <c r="O196" s="22">
         <f t="shared" si="40"/>
         <v>7.7692307692309726E-2</v>
       </c>
-      <c r="P196" s="11">
+      <c r="P196" s="23">
         <f t="shared" si="40"/>
         <v>-13.237179487179503</v>
       </c>
@@ -68010,7 +68111,7 @@
         <f t="shared" si="60"/>
         <v>0.80838744680490349</v>
       </c>
-      <c r="F213" s="11">
+      <c r="F213" s="18">
         <f t="shared" si="60"/>
         <v>0.60462476857135616</v>
       </c>
@@ -68026,31 +68127,31 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="J213" s="12">
+      <c r="J213" s="22">
         <f t="shared" si="60"/>
         <v>240.03846153846155</v>
       </c>
-      <c r="K213" s="11">
+      <c r="K213" s="23">
         <f t="shared" si="60"/>
         <v>1.7307692307692308</v>
       </c>
-      <c r="L213" s="11">
+      <c r="L213" s="23">
         <f t="shared" si="60"/>
         <v>15.23076923076923</v>
       </c>
-      <c r="M213" s="11">
+      <c r="M213" s="23">
         <f t="shared" si="60"/>
         <v>9.0833333333333321</v>
       </c>
-      <c r="N213" s="12">
+      <c r="N213" s="22">
         <f t="shared" si="60"/>
         <v>0.52586923076923087</v>
       </c>
-      <c r="O213" s="12">
+      <c r="O213" s="22">
         <f t="shared" si="60"/>
         <v>10.345769230769228</v>
       </c>
-      <c r="P213" s="11">
+      <c r="P213" s="23">
         <f t="shared" si="60"/>
         <v>57.211538461538467</v>
       </c>
@@ -68104,7 +68205,7 @@
         <f t="shared" si="62"/>
         <v>0.95129702657282145</v>
       </c>
-      <c r="F214" s="11">
+      <c r="F214" s="18">
         <f t="shared" si="62"/>
         <v>0.72499936594892078</v>
       </c>
@@ -68120,31 +68221,31 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J214" s="12">
+      <c r="J214" s="22">
         <f t="shared" si="62"/>
         <v>224.80769230769232</v>
       </c>
-      <c r="K214" s="11">
+      <c r="K214" s="23">
         <f t="shared" si="62"/>
         <v>4.1538461538461542</v>
       </c>
-      <c r="L214" s="11">
+      <c r="L214" s="23">
         <f t="shared" si="62"/>
         <v>70.807692307692307</v>
       </c>
-      <c r="M214" s="12">
+      <c r="M214" s="22">
         <f t="shared" si="62"/>
         <v>19.992918192918196</v>
       </c>
-      <c r="N214" s="12">
+      <c r="N214" s="22">
         <f t="shared" si="62"/>
         <v>0.57555000000000012</v>
       </c>
-      <c r="O214" s="12">
+      <c r="O214" s="22">
         <f t="shared" si="62"/>
         <v>11.339230769230769</v>
       </c>
-      <c r="P214" s="12">
+      <c r="P214" s="22">
         <f t="shared" si="62"/>
         <v>45.128205128205131</v>
       </c>
@@ -68198,7 +68299,7 @@
         <f t="shared" si="64"/>
         <v>0.98016054173324207</v>
       </c>
-      <c r="F215" s="13">
+      <c r="F215" s="21">
         <f t="shared" si="64"/>
         <v>0.98016054173324207</v>
       </c>
@@ -68214,31 +68315,31 @@
         <f t="shared" si="64"/>
         <v>2</v>
       </c>
-      <c r="J215" s="14">
+      <c r="J215" s="24">
         <f t="shared" si="64"/>
         <v>207.19230769230768</v>
       </c>
-      <c r="K215" s="13">
+      <c r="K215" s="25">
         <f t="shared" si="64"/>
         <v>3.3461538461538463</v>
       </c>
-      <c r="L215" s="13">
+      <c r="L215" s="25">
         <f t="shared" si="64"/>
         <v>53.884615384615387</v>
       </c>
-      <c r="M215" s="14">
+      <c r="M215" s="24">
         <f t="shared" si="64"/>
         <v>18.7764652014652</v>
       </c>
-      <c r="N215" s="14">
+      <c r="N215" s="24">
         <f t="shared" si="64"/>
         <v>0.54497307692307695</v>
       </c>
-      <c r="O215" s="14">
+      <c r="O215" s="24">
         <f t="shared" si="64"/>
         <v>10.953846153846154</v>
       </c>
-      <c r="P215" s="14">
+      <c r="P215" s="24">
         <f t="shared" si="64"/>
         <v>42.243589743589737</v>
       </c>
@@ -68272,12 +68373,21 @@
       </c>
     </row>
     <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F216" s="5"/>
       <c r="G216" s="18">
         <f t="shared" ref="G216:I217" si="66">G219/26</f>
         <v>0.19230769230769232</v>
       </c>
+      <c r="J216" s="27"/>
+      <c r="K216" s="27"/>
+      <c r="L216" s="27"/>
+      <c r="M216" s="27"/>
+      <c r="N216" s="27"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="27"/>
     </row>
     <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F217" s="5"/>
       <c r="G217" s="18">
         <f t="shared" si="66"/>
         <v>0.92307692307692313</v>
@@ -68290,6 +68400,13 @@
         <f t="shared" si="66"/>
         <v>0.15384615384615385</v>
       </c>
+      <c r="J217" s="27"/>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+      <c r="O217" s="27"/>
+      <c r="P217" s="27"/>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
@@ -68312,7 +68429,7 @@
         <f t="shared" si="67"/>
         <v>0.81136543014996065</v>
       </c>
-      <c r="F218" s="11">
+      <c r="F218" s="18">
         <f t="shared" si="67"/>
         <v>0.5834279228149829</v>
       </c>
@@ -68328,31 +68445,31 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="J218" s="12">
+      <c r="J218" s="22">
         <f t="shared" si="67"/>
         <v>246.65384615384616</v>
       </c>
-      <c r="K218" s="11">
+      <c r="K218" s="23">
         <f t="shared" si="67"/>
         <v>1.7692307692307692</v>
       </c>
-      <c r="L218" s="11">
+      <c r="L218" s="23">
         <f t="shared" si="67"/>
         <v>26.423076923076923</v>
       </c>
-      <c r="M218" s="11">
+      <c r="M218" s="23">
         <f t="shared" si="67"/>
         <v>16.935897435897438</v>
       </c>
-      <c r="N218" s="12">
+      <c r="N218" s="22">
         <f t="shared" si="67"/>
         <v>0.53287307692307684</v>
       </c>
-      <c r="O218" s="12">
+      <c r="O218" s="22">
         <f t="shared" si="67"/>
         <v>10.443461538461539</v>
       </c>
-      <c r="P218" s="11">
+      <c r="P218" s="23">
         <f t="shared" si="67"/>
         <v>65.801282051282058</v>
       </c>
@@ -68406,7 +68523,7 @@
         <f t="shared" si="69"/>
         <v>0.87912087912087911</v>
       </c>
-      <c r="F219" s="11">
+      <c r="F219" s="18">
         <f t="shared" si="69"/>
         <v>0.72993975377630305</v>
       </c>
@@ -68422,31 +68539,31 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="J219" s="12">
+      <c r="J219" s="22">
         <f t="shared" si="69"/>
         <v>255.23076923076923</v>
       </c>
-      <c r="K219" s="12">
+      <c r="K219" s="22">
         <f t="shared" si="69"/>
         <v>2.9615384615384617</v>
       </c>
-      <c r="L219" s="11">
+      <c r="L219" s="23">
         <f t="shared" si="69"/>
         <v>91.42307692307692</v>
       </c>
-      <c r="M219" s="11">
+      <c r="M219" s="23">
         <f t="shared" si="69"/>
         <v>51.289447731755416</v>
       </c>
-      <c r="N219" s="12">
+      <c r="N219" s="22">
         <f t="shared" si="69"/>
         <v>0.5583307692307693</v>
       </c>
-      <c r="O219" s="12">
+      <c r="O219" s="22">
         <f t="shared" si="69"/>
         <v>11.000384615384615</v>
       </c>
-      <c r="P219" s="12">
+      <c r="P219" s="22">
         <f t="shared" si="69"/>
         <v>53.237179487179496</v>
       </c>
@@ -68500,7 +68617,7 @@
         <f t="shared" si="71"/>
         <v>0.91176984196280442</v>
       </c>
-      <c r="F220" s="13">
+      <c r="F220" s="21">
         <f t="shared" si="71"/>
         <v>0.91176984196280442</v>
       </c>
@@ -68516,31 +68633,31 @@
         <f t="shared" si="71"/>
         <v>4</v>
       </c>
-      <c r="J220" s="14">
+      <c r="J220" s="24">
         <f t="shared" si="71"/>
         <v>249.53846153846155</v>
       </c>
-      <c r="K220" s="14">
+      <c r="K220" s="24">
         <f t="shared" si="71"/>
         <v>3.2692307692307692</v>
       </c>
-      <c r="L220" s="13">
+      <c r="L220" s="25">
         <f t="shared" si="71"/>
         <v>74.42307692307692</v>
       </c>
-      <c r="M220" s="13">
+      <c r="M220" s="25">
         <f t="shared" si="71"/>
         <v>32.384615384615387</v>
       </c>
-      <c r="N220" s="14">
+      <c r="N220" s="24">
         <f t="shared" si="71"/>
         <v>0.55581923076923068</v>
       </c>
-      <c r="O220" s="14">
+      <c r="O220" s="24">
         <f t="shared" si="71"/>
         <v>10.876153846153844</v>
       </c>
-      <c r="P220" s="14">
+      <c r="P220" s="24">
         <f t="shared" si="71"/>
         <v>55.480769230769241</v>
       </c>
@@ -69135,6 +69252,36 @@
       <c r="AH230" s="1">
         <f t="shared" si="84"/>
         <v>19.348027130592765</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F232" s="19">
+        <f>F215</f>
+        <v>0.98016054173324207</v>
+      </c>
+      <c r="G232" s="5">
+        <v>0.9612594790636334</v>
+      </c>
+      <c r="H232" s="5">
+        <v>0.96356742499175729</v>
+      </c>
+      <c r="I232" s="5">
+        <v>0.9947246950214309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F233" s="20">
+        <f>F220</f>
+        <v>0.91176984196280442</v>
+      </c>
+      <c r="G233" s="5">
+        <v>0.78830874006810447</v>
+      </c>
+      <c r="H233" s="5">
+        <v>0.9653802497162316</v>
+      </c>
+      <c r="I233" s="5">
+        <v>0.9858115777525539</v>
       </c>
     </row>
     <row r="234" spans="1:34" x14ac:dyDescent="0.25">
@@ -69489,8 +69636,8 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71124,6 +71271,13 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35">
+        <f>MIN(C2:C27)</f>
+        <v>19</v>
+      </c>
       <c r="G35" t="s">
         <v>45</v>
       </c>
@@ -71132,6 +71286,13 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36">
+        <f>MAX(C2:C27)</f>
+        <v>30</v>
+      </c>
       <c r="G36" t="s">
         <v>49</v>
       </c>

--- a/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
+++ b/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1930,12 +1930,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cone"/>
-        <c:axId val="126925824"/>
-        <c:axId val="110945984"/>
-        <c:axId val="126568320"/>
+        <c:axId val="539103744"/>
+        <c:axId val="538789568"/>
+        <c:axId val="539078656"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="126925824"/>
+        <c:axId val="539103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110945984"/>
+        <c:crossAx val="538789568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +1996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110945984"/>
+        <c:axId val="538789568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,12 +2007,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126925824"/>
+        <c:crossAx val="539103744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="126568320"/>
+        <c:axId val="539078656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,7 +2057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110945984"/>
+        <c:crossAx val="538789568"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2281,12 +2281,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="51888640"/>
-        <c:axId val="110948288"/>
+        <c:axId val="539106816"/>
+        <c:axId val="538791872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="51888640"/>
+        <c:axId val="539106816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110948288"/>
+        <c:crossAx val="538791872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110948288"/>
+        <c:axId val="538791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51888640"/>
+        <c:crossAx val="539106816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2622,12 +2622,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="51890688"/>
-        <c:axId val="110950592"/>
+        <c:axId val="542511616"/>
+        <c:axId val="538794176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="51890688"/>
+        <c:axId val="542511616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +2636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110950592"/>
+        <c:crossAx val="538794176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2644,7 +2644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110950592"/>
+        <c:axId val="538794176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000022"/>
@@ -2674,7 +2674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51890688"/>
+        <c:crossAx val="542511616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20885,9 +20885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21200,25 +21200,25 @@
         <v>138</v>
       </c>
       <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
         <v>139</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>140</v>
-      </c>
-      <c r="E10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" t="s">
-        <v>142</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
       </c>
       <c r="H10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s">
         <v>144</v>
-      </c>
-      <c r="I10" t="s">
-        <v>145</v>
       </c>
       <c r="J10" t="s">
         <v>146</v>
@@ -52610,11 +52610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK268"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G87" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB99" sqref="AB99"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71118,16 +71118,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.7109375" bestFit="1" customWidth="1"/>

--- a/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
+++ b/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="379">
   <si>
     <t>subject</t>
   </si>
@@ -1159,11 +1159,17 @@
   <si>
     <t>Scenario 1</t>
   </si>
+  <si>
+    <t>Full Autonomy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1238,11 +1244,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1274,8 +1281,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1930,12 +1939,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cone"/>
-        <c:axId val="126925824"/>
-        <c:axId val="110945984"/>
-        <c:axId val="126568320"/>
+        <c:axId val="114681856"/>
+        <c:axId val="113960640"/>
+        <c:axId val="131745664"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="126925824"/>
+        <c:axId val="114681856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110945984"/>
+        <c:crossAx val="113960640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1996,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110945984"/>
+        <c:axId val="113960640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,12 +2016,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126925824"/>
+        <c:crossAx val="114681856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="126568320"/>
+        <c:axId val="131745664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,7 +2066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110945984"/>
+        <c:crossAx val="113960640"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2229,7 +2238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sliding Autonomy</c:v>
+                  <c:v>Full Autonomy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2259,6 +2268,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0.9612594790636334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78830874006810447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87478410956586894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sliding Autonomy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$C$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Senario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>0.98016054173324207</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2281,12 +2341,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="51888640"/>
-        <c:axId val="110948288"/>
+        <c:axId val="117118464"/>
+        <c:axId val="113962944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="51888640"/>
+        <c:axId val="117118464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110948288"/>
+        <c:crossAx val="113962944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110948288"/>
+        <c:axId val="113962944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,13 +2386,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51888640"/>
+        <c:crossAx val="117118464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2343,10 +2404,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2640201224846883E-2"/>
-          <c:y val="2.2572178477690295E-2"/>
-          <c:w val="0.82680424321959789"/>
-          <c:h val="0.10300342665500146"/>
+          <c:x val="5.9129174724671843E-2"/>
+          <c:y val="2.2572178477690288E-2"/>
+          <c:w val="0.90735978521270388"/>
+          <c:h val="0.10533183352080989"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2413,7 +2474,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$22</c:f>
+              <c:f>Graphs!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2425,7 +2486,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$C$21:$E$21</c:f>
+              <c:f>Graphs!$C$22:$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2442,7 +2503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$22:$E$22</c:f>
+              <c:f>Graphs!$C$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2464,7 +2525,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$23</c:f>
+              <c:f>Graphs!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2476,7 +2537,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$C$21:$E$21</c:f>
+              <c:f>Graphs!$C$22:$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2493,7 +2554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$23:$E$23</c:f>
+              <c:f>Graphs!$C$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2515,7 +2576,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$24</c:f>
+              <c:f>Graphs!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2527,7 +2588,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$C$21:$E$21</c:f>
+              <c:f>Graphs!$C$22:$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2544,7 +2605,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$24:$E$24</c:f>
+              <c:f>Graphs!$C$25:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2566,7 +2627,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$25</c:f>
+              <c:f>Graphs!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2578,7 +2639,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$C$21:$E$21</c:f>
+              <c:f>Graphs!$C$22:$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2595,7 +2656,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$25:$E$25</c:f>
+              <c:f>Graphs!$C$26:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2622,12 +2683,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="51890688"/>
-        <c:axId val="110950592"/>
+        <c:axId val="117119488"/>
+        <c:axId val="113965248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="51890688"/>
+        <c:axId val="117119488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +2697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110950592"/>
+        <c:crossAx val="113965248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2644,7 +2705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110950592"/>
+        <c:axId val="113965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000022"/>
@@ -2668,13 +2729,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51890688"/>
+        <c:crossAx val="117119488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2752,7 +2814,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2776,13 +2838,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18739,10 +18801,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AC82"/>
+  <dimension ref="B5:AC83"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18794,241 +18856,236 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.9612594790636334</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.78830874006810447</v>
+      </c>
+      <c r="E8" s="31">
+        <f>SUM(C8:D8)/2</f>
+        <v>0.87478410956586894</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.98016054173324207</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.91176984196280442</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.94596519184802319</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>369</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>370</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.9612594790636334</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.78830874006810447</v>
-      </c>
-      <c r="E22" s="5">
-        <f>SUM(C22:D22)/2</f>
-        <v>0.87478410956586894</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C23" s="5">
-        <v>0.98016054173324207</v>
+        <v>0.9612594790636334</v>
       </c>
       <c r="D23" s="5">
-        <v>0.91176984196280442</v>
+        <v>0.78830874006810447</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ref="E23:E25" si="0">SUM(C23:D23)/2</f>
-        <v>0.94596519184802319</v>
+        <f>SUM(C23:D23)/2</f>
+        <v>0.87478410956586894</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.98016054173324207</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.91176984196280442</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:E26" si="0">SUM(C24:D24)/2</f>
+        <v>0.94596519184802319</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>327</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>0.96356742499175729</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <v>0.9653802497162316</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>0.9644738373539945</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>376</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <v>0.9947246950214309</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <v>0.9858115777525539</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>0.9902681363869924</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>375</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>327</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>377</v>
-      </c>
-      <c r="C37" s="30">
-        <v>0.88461538461538458</v>
-      </c>
-      <c r="D37" s="30">
-        <v>0.88461538461538458</v>
-      </c>
-      <c r="E37" s="7">
-        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E38" s="7">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>370</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C39" s="30">
         <v>0.92307692307692313</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D39" s="5">
         <v>0.26923076923076922</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>0.15384615384615385</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>377</v>
-      </c>
-      <c r="F45" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>377</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>372</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>373</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>374</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>372</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>373</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="C47">
-        <v>50.833333333333336</v>
-      </c>
-      <c r="D47">
-        <v>31.666666666666668</v>
-      </c>
-      <c r="F47">
-        <v>79.166666666666671</v>
-      </c>
-      <c r="G47">
-        <v>59.166666666666664</v>
-      </c>
-      <c r="H47">
-        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>53.333333333333336</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="C48">
-        <v>49.166666666666664</v>
+        <v>50.833333333333336</v>
       </c>
       <c r="D48">
-        <v>50.833333333333336</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="F48">
-        <v>65</v>
+        <v>79.166666666666671</v>
       </c>
       <c r="G48">
-        <v>65</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="H48">
-        <v>55</v>
+        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>64.166666666666671</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="C49">
-        <v>13.333333333333334</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="D49">
-        <v>4.166666666666667</v>
+        <v>50.833333333333336</v>
       </c>
       <c r="F49">
-        <v>59.166666666666664</v>
+        <v>65</v>
       </c>
       <c r="G49">
-        <v>12.5</v>
+        <v>65</v>
       </c>
       <c r="H49">
-        <v>50.833333333333336</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>26.666666666666668</v>
+        <v>64.166666666666671</v>
       </c>
       <c r="C50">
-        <v>28.333333333333332</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="D50">
-        <v>29.166666666666668</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="G50">
-        <v>57.5</v>
+        <v>12.5</v>
       </c>
       <c r="H50">
         <v>50.833333333333336</v>
@@ -19036,359 +19093,359 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>67.5</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="C51">
-        <v>58.333333333333336</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="D51">
-        <v>65</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="F51">
-        <v>65.833333333333329</v>
+        <v>50</v>
       </c>
       <c r="G51">
-        <v>65</v>
+        <v>57.5</v>
       </c>
       <c r="H51">
-        <v>42.5</v>
+        <v>50.833333333333336</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>64.166666666666671</v>
+        <v>67.5</v>
       </c>
       <c r="C52">
-        <v>56.666666666666664</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="D52">
-        <v>43.333333333333336</v>
+        <v>65</v>
       </c>
       <c r="F52">
-        <v>75</v>
+        <v>65.833333333333329</v>
       </c>
       <c r="G52">
-        <v>61.666666666666664</v>
+        <v>65</v>
       </c>
       <c r="H52">
-        <v>77.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>46.666666666666664</v>
+        <v>64.166666666666671</v>
       </c>
       <c r="C53">
-        <v>21.666666666666668</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F53">
-        <v>53.333333333333336</v>
+        <v>75</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="H53">
-        <v>22.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>57.5</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="C54">
-        <v>62.5</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="D54">
-        <v>59.166666666666664</v>
+        <v>25</v>
       </c>
       <c r="F54">
-        <v>75</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="G54">
-        <v>62.5</v>
+        <v>20</v>
       </c>
       <c r="H54">
-        <v>76.666666666666671</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>82.5</v>
+        <v>57.5</v>
       </c>
       <c r="C55">
-        <v>45</v>
+        <v>62.5</v>
       </c>
       <c r="D55">
-        <v>63.333333333333336</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="F55">
-        <v>70.833333333333329</v>
+        <v>75</v>
       </c>
       <c r="G55">
-        <v>45</v>
+        <v>62.5</v>
       </c>
       <c r="H55">
-        <v>62.5</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>17.5</v>
+        <v>82.5</v>
       </c>
       <c r="C56">
-        <v>31.666666666666668</v>
+        <v>45</v>
       </c>
       <c r="D56">
-        <v>21.666666666666668</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="F56">
-        <v>55</v>
+        <v>70.833333333333329</v>
       </c>
       <c r="G56">
-        <v>46.666666666666664</v>
+        <v>45</v>
       </c>
       <c r="H56">
-        <v>56.666666666666664</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>66.666666666666671</v>
+        <v>17.5</v>
       </c>
       <c r="C57">
-        <v>32.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="F57">
-        <v>79.166666666666671</v>
+        <v>55</v>
       </c>
       <c r="G57">
-        <v>50.833333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="H57">
-        <v>35.833333333333336</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>71.666666666666671</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="C58">
-        <v>64.166666666666671</v>
+        <v>32.5</v>
       </c>
       <c r="D58">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>63.333333333333336</v>
+        <v>79.166666666666671</v>
       </c>
       <c r="G58">
-        <v>61.666666666666664</v>
+        <v>50.833333333333336</v>
       </c>
       <c r="H58">
-        <v>62.5</v>
+        <v>35.833333333333336</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>74.166666666666671</v>
+        <v>71.666666666666671</v>
       </c>
       <c r="C59">
+        <v>64.166666666666671</v>
+      </c>
+      <c r="D59">
         <v>65</v>
       </c>
-      <c r="D59">
+      <c r="F59">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="G59">
         <v>61.666666666666664</v>
       </c>
-      <c r="F59">
-        <v>85.833333333333329</v>
-      </c>
-      <c r="G59">
-        <v>78.333333333333329</v>
-      </c>
       <c r="H59">
-        <v>66.666666666666671</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>45</v>
+        <v>74.166666666666671</v>
       </c>
       <c r="C60">
-        <v>57.5</v>
+        <v>65</v>
       </c>
       <c r="D60">
-        <v>70.833333333333329</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="F60">
-        <v>59.166666666666664</v>
+        <v>85.833333333333329</v>
       </c>
       <c r="G60">
-        <v>62.5</v>
+        <v>78.333333333333329</v>
       </c>
       <c r="H60">
-        <v>67.5</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>57.5</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>70.833333333333329</v>
       </c>
       <c r="F61">
-        <v>83.333333333333329</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="G61">
-        <v>46.666666666666664</v>
+        <v>62.5</v>
       </c>
       <c r="H61">
-        <v>58.333333333333336</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>61.666666666666664</v>
+        <v>70</v>
       </c>
       <c r="C62">
-        <v>51.666666666666664</v>
+        <v>60</v>
       </c>
       <c r="D62">
-        <v>54.166666666666664</v>
+        <v>40</v>
       </c>
       <c r="F62">
-        <v>59.166666666666664</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="G62">
-        <v>53.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="H62">
-        <v>68.333333333333329</v>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>72.5</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="C63">
-        <v>63.333333333333336</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="D63">
+        <v>54.166666666666664</v>
+      </c>
+      <c r="F63">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="G63">
         <v>53.333333333333336</v>
       </c>
-      <c r="F63">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="G63">
-        <v>62.5</v>
-      </c>
       <c r="H63">
-        <v>71.666666666666671</v>
+        <v>68.333333333333329</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>57.5</v>
+        <v>72.5</v>
       </c>
       <c r="C64">
-        <v>35.833333333333336</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F64">
-        <v>79.166666666666671</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="G64">
-        <v>39.166666666666664</v>
+        <v>62.5</v>
       </c>
       <c r="H64">
-        <v>63.333333333333336</v>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>71.666666666666671</v>
+        <v>57.5</v>
       </c>
       <c r="C65">
-        <v>41.666666666666664</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="D65">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>73.333333333333329</v>
+        <v>79.166666666666671</v>
       </c>
       <c r="G65">
-        <v>77.5</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="H65">
-        <v>74.166666666666671</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>36.666666666666664</v>
+        <v>71.666666666666671</v>
       </c>
       <c r="C66">
-        <v>36.666666666666664</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="D66">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="F66">
-        <v>31.666666666666668</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G66">
-        <v>51.666666666666664</v>
+        <v>77.5</v>
       </c>
       <c r="H66">
-        <v>47.5</v>
+        <v>74.166666666666671</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>62.5</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="C67">
-        <v>35.833333333333336</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="D67">
-        <v>26.666666666666668</v>
+        <v>17.5</v>
       </c>
       <c r="F67">
-        <v>73.333333333333329</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="G67">
-        <v>60</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="H67">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>34.166666666666664</v>
+        <v>62.5</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="D68">
         <v>26.666666666666668</v>
       </c>
       <c r="F68">
-        <v>42.5</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G68">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H68">
         <v>42.5</v>
@@ -19396,86 +19453,103 @@
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>65</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="C69">
-        <v>44.166666666666664</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>45.833333333333336</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="F69">
-        <v>75.833333333333329</v>
+        <v>42.5</v>
       </c>
       <c r="G69">
-        <v>56.666666666666664</v>
+        <v>45</v>
       </c>
       <c r="H69">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>13.333333333333334</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="F70">
-        <v>61.666666666666664</v>
+        <v>75.833333333333329</v>
       </c>
       <c r="G70">
-        <v>24.166666666666668</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="H70">
-        <v>56.666666666666664</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>61.666666666666664</v>
+      </c>
+      <c r="G71">
+        <v>24.166666666666668</v>
+      </c>
+      <c r="H71">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>52.5</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>67.5</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>50.833333333333336</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>53.333333333333336</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>59.166666666666664</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <v>57.5</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B72" s="1">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
         <v>52.5</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <v>56.666666666666664</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D73" s="1">
         <v>52.5</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F73" s="1">
         <v>55</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G73" s="1">
         <v>60</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H73" s="1">
         <v>53.333333333333336</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="AC77" s="1"/>
@@ -19483,8 +19557,8 @@
     <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="AC78" s="1"/>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="AC80" s="1"/>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC79" s="1"/>
     </row>
     <row r="81" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC81" s="1"/>
@@ -19492,9 +19566,12 @@
     <row r="82" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC82" s="1"/>
     </row>
+    <row r="83" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC83" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -20885,7 +20962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>

--- a/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
+++ b/PathPlanner/UserStudyData/DataMyAnalysis.xlsx
@@ -1939,12 +1939,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cone"/>
-        <c:axId val="114681856"/>
-        <c:axId val="113960640"/>
-        <c:axId val="131745664"/>
+        <c:axId val="128641024"/>
+        <c:axId val="114747072"/>
+        <c:axId val="128272256"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="114681856"/>
+        <c:axId val="128641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113960640"/>
+        <c:crossAx val="114747072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113960640"/>
+        <c:axId val="114747072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,12 +2016,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114681856"/>
+        <c:crossAx val="128641024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="131745664"/>
+        <c:axId val="128272256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113960640"/>
+        <c:crossAx val="114747072"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2341,12 +2341,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="117118464"/>
-        <c:axId val="113962944"/>
+        <c:axId val="131405312"/>
+        <c:axId val="114749376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="117118464"/>
+        <c:axId val="131405312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113962944"/>
+        <c:crossAx val="114749376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2363,7 +2363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113962944"/>
+        <c:axId val="114749376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,7 +2393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117118464"/>
+        <c:crossAx val="131405312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2683,12 +2683,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="117119488"/>
-        <c:axId val="113965248"/>
+        <c:axId val="131406848"/>
+        <c:axId val="114751680"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="117119488"/>
+        <c:axId val="131406848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113965248"/>
+        <c:crossAx val="114751680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2705,7 +2705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113965248"/>
+        <c:axId val="114751680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75000000000000022"/>
@@ -2736,7 +2736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117119488"/>
+        <c:crossAx val="131406848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18804,7 +18804,7 @@
   <dimension ref="B5:AC83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
